--- a/data/NEEMSIS_papers.xlsx
+++ b/data/NEEMSIS_papers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud\Documents\MEGA\ODRIIS materials\NEEMSIS papers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud\Documents\Dropbox (Compte personnel)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAAEA1B-0123-42F7-B81F-7D248BAB449A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C4EE9A-0FE8-46C2-94B2-68AC9820AD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="512" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,19 +19,10 @@
     <sheet name="Journals" sheetId="4" r:id="rId4"/>
     <sheet name="Lists" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -41,99 +32,540 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="336">
   <si>
     <t>Title</t>
   </si>
   <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Topic1</t>
+  </si>
+  <si>
+    <t>Topic2</t>
+  </si>
+  <si>
+    <t>Topic3</t>
+  </si>
+  <si>
+    <t>Topic4</t>
+  </si>
+  <si>
+    <t>Topic5</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Idea</t>
+  </si>
+  <si>
+    <t>Supp co-authors?</t>
+  </si>
+  <si>
+    <t>Who?</t>
+  </si>
+  <si>
+    <t>The Ties That Bind: Lender-Borrower Relationships and Indebtedness in Rural South India</t>
+  </si>
+  <si>
+    <t>A. Natal</t>
+  </si>
+  <si>
+    <t>A. Natal, D. Girollet</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Networks</t>
+  </si>
+  <si>
+    <t>Caste</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>Study the effects of lender-borrower relationships on the loan characteristics.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Intra-household inequality and recourse to debt</t>
+  </si>
+  <si>
+    <t>M. Di Santolo, A. Natal</t>
+  </si>
+  <si>
+    <t>Inequality</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>Study the effects of intra-household inequality on household/individuel indebtedness (recourse, burden). We will measure intra-household inequality with individualised consumption data from NEEMSIS-3.</t>
+  </si>
+  <si>
+    <t>The Role of Networks in Labor Market Segmentation</t>
+  </si>
+  <si>
+    <t>C. Mouchel</t>
+  </si>
+  <si>
+    <t>Employment / Labour</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>N1, N2</t>
+  </si>
+  <si>
+    <t>How exposure, perceptions, and representations of climate change interact with social inequalities to reconfigure informal protection strategies (debt, marriages, etc.)?</t>
+  </si>
+  <si>
+    <t>Social protection</t>
+  </si>
+  <si>
+    <t>Climate change</t>
+  </si>
+  <si>
+    <t>Marriage</t>
+  </si>
+  <si>
+    <t>Projet MSCA-PF</t>
+  </si>
+  <si>
+    <t>How private insurance mitigate or reinforce inequalities?</t>
+  </si>
+  <si>
+    <t>The Financial Burden of Education in Rural South India</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Regarder l'endettement pour l'éducation, son rapport avec le DSR.</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>C. J. Nordman, I. Guérin</t>
+  </si>
+  <si>
+    <t>The curse of having a job. Threats on female employment in a context of rising patriarcal norms</t>
+  </si>
+  <si>
+    <t>R, N1, N2</t>
+  </si>
+  <si>
+    <t>M. Di Santolo, I. Guérin</t>
+  </si>
+  <si>
+    <t>Stability over time of the locus of control</t>
+  </si>
+  <si>
+    <t>Personality</t>
+  </si>
+  <si>
+    <t>N2, N3</t>
+  </si>
+  <si>
+    <t>Dans un short paper, regarder la stabilité dans le temps du locus de contrôle. Faire des régressions pour regarder les facteurs explicatifs du changement. Eventuellement faire une PSM avec effets du COVID.</t>
+  </si>
+  <si>
+    <t>C. J. Nordman</t>
+  </si>
+  <si>
+    <t>Household indebtedness Landscape: Evolution between 2010 and 2025</t>
+  </si>
+  <si>
+    <t>R, N1, N2, N3</t>
+  </si>
+  <si>
+    <t>Faire une ACM à l'échelle des prêts pour regarder la transformation des pratiques d'endettement depuis 2010. Essayer d'en tirer des variables à l'échelle des ménages pour faire de l'économétrie.</t>
+  </si>
+  <si>
+    <t>I.Guérin, S. Michiels</t>
+  </si>
+  <si>
+    <t>How climate change and financialisation are transforming families livelihood? Understanding how populations perceive, interpret and prioritise risks.</t>
+  </si>
+  <si>
+    <t>Projet MSCA-PF: papier de contextualisation sur l'exposition aux chocs avec NEEMSIS-3</t>
+  </si>
+  <si>
+    <t>C. J. Nordman, I. Guérin, G. Venkatasubramanian</t>
+  </si>
+  <si>
+    <t>Inequalities in access to government programmes</t>
+  </si>
+  <si>
+    <t>Political work</t>
+  </si>
+  <si>
+    <t>I. Guérin</t>
+  </si>
+  <si>
+    <t>How families assemble these different resources – public, private, informal – to cope with climate change?</t>
+  </si>
+  <si>
+    <t>Projet MSCA-PF: to highlight the effects of these arrangements on the reproduction of social inequalities.</t>
+  </si>
+  <si>
+    <t>Main author</t>
+  </si>
+  <si>
+    <t>Team 1</t>
+  </si>
+  <si>
+    <t>Team 2</t>
+  </si>
+  <si>
+    <t>Team 3</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Authors</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Permanent link</t>
   </si>
   <si>
+    <t>From dissertation?</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>WP1serie</t>
+  </si>
+  <si>
+    <t>WP1date</t>
+  </si>
+  <si>
+    <t>WP2serie</t>
+  </si>
+  <si>
+    <t>WP2date</t>
+  </si>
+  <si>
+    <t>Abstract_eng</t>
+  </si>
+  <si>
+    <t>Cite-sep25</t>
+  </si>
+  <si>
+    <t>Cite-N-sep252</t>
+  </si>
+  <si>
+    <t>Dettes, protections et solidarités en Inde du Sud</t>
+  </si>
+  <si>
+    <t>I. Guérin, M. Roesch, S. Michiels, G. Venkat</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Interns</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
+    <t>3-Published</t>
+  </si>
+  <si>
+    <t>Journal article</t>
+  </si>
+  <si>
+    <t>Economies et sociétés</t>
+  </si>
+  <si>
+    <t>https://econpapers.repec.org/paper/haljournl/hal-01135271.htm</t>
+  </si>
+  <si>
+    <t>This paper draws on a survey conducted in rural Tamil Nadu in southern India to examine the meanings and implications of recent developments in debt relationships for social relations. While some changes and differentiation practices were observed, we also found persisting social hierarchies based on creditor-debtor relationships. In a context where patron-client mentalities shape redistributive social protection measures, and rules of reciprocity are limited to inter-caste relationships, bonds of hierarchical debt continue to play a key role in terms of protection.</t>
+  </si>
+  <si>
+    <t>Debt in Rural South India: Fragmentation, Social Regulation and Discrimination</t>
+  </si>
+  <si>
+    <t>I. Guérin, B. D'Espallier, G. Venkat</t>
+  </si>
+  <si>
+    <t>The Journal of Development Studies</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/00220388.2012.720365</t>
+  </si>
+  <si>
+    <t>This micro-level study combines multivariate and qualitative analyses to highlight the fragmented nature of debt in southern Indian rural households. It finds that debt is socially regulated in the sense that social interactions shape the cost, use and access to debt. Caste, social class and location affect how individuals borrow varying amounts from distinct money providers, for varied purposes and at differing costs. Debt thus is not purely an economic but first and foremost a social transaction which inscribes debtors and creditors into local systems of hierarchies. Furthermore, we find that debt is an illustration and catalyst of broader socio-economic and political trends, namely a lack of social protection, persistent under-employment and rising consumerism. In terms of policy implications, the study highlights the ambiguities and illusions inherent to ‘financial inclusion' policies aiming to eradicate informal debt.</t>
+  </si>
+  <si>
+    <t>The Social Regulation of Markets: Why Microcredit Fails to Promote Jobs in Rural South India</t>
+  </si>
+  <si>
+    <t>Development and Change</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/dech.12197</t>
+  </si>
+  <si>
+    <t>There is growing evidence that microcredit does little to support self-employment. Two main explanations are typically emphasized: from a microeconomic perspective, the poor have been argued to lack the skills, resources and motivation to start their own businesses; from a macroeconomic perspective, local markets are often saturated. This article uses first-hand data from rural South India to explore a third explanation which focuses on the social regulation of markets. Drawing on a household survey, the authors show that self-employment and microcredit are uncorrelated, and that women and lower castes have a significantly lower chance of starting up a business. The businesses they do start tend to be smaller, less profitable and based in very specific sectors. Qualitative insights into the workings of local economies show that caste and gender-based social regulations influence local markets determining who can produce or sell what, to whom, and at what price. The authors observe that real markets are affected by power relations and structured through social institutions rather than being the sum of interactions between free and competitive individuals. These findings show the importance of integrating self-employment programmes into broader policies for transforming the social regulation of markets and for eradicating discrimination against women and lower castes.</t>
+  </si>
+  <si>
+    <t>Inégalités et mobilité de revenu dans des villages indiens : Résultats issus d'une micro-enquête longitudinale (2010 - 2020)</t>
+  </si>
+  <si>
+    <t>A. Natal, C. J. Nordman</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>2-Submitted</t>
+  </si>
+  <si>
+    <t>Book chapter</t>
+  </si>
+  <si>
+    <t>IRD Editions</t>
+  </si>
+  <si>
+    <t>This chapter analyses income inequality and mobility in ten villages in Tamil Nadu, India, between 2010 and 2020–2021, based on the NEEMSIS longitudinal micro-survey conducted by an interdisciplinary team. Five main findings emerge from the analyses: (i) income inequality has increased; (ii) regular non-agricultural income increases inequality, while casual income reduces it; (iii) Dalits are under-represented in the upper income quintiles; (iv) the share of inequality between castes is declining, while that between jatis remains stable for middle castes but is decreasing for high castes; (v) most households experience income mobility (upward or downward), but the latter is highly volatile.</t>
+  </si>
+  <si>
+    <t>Réseaux interpersonnels et trajectoires d’emploi individuelles dans les zones rurales d’Inde du Sud</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>4-Finished</t>
+  </si>
+  <si>
+    <t>Dissertation</t>
+  </si>
+  <si>
+    <t>Université Paris Cité</t>
+  </si>
+  <si>
+    <t>This PhD explores the characteristics of the labor market in rural areas of South India over the last decade through the use of interpersonal networks. It is divided into five chapters and takes a multidisciplinary approach that draws on institutional economics, economic sociology and economic anthropology. It is based on a mixed methodology that combines quantitative and qualitative data. The former consists of longitudinal RUME-NEEMSIS data (2010-2021) collected from 600 households in ten villages. The latter is the result of several months of ethnographic fieldwork conducted using the quantified narratives method. The first chapter presents the methodological and conceptual framework, reviewing ten years of transformations in Tamil villages. The second chapter examines social capital endowments using the network modules of the NEEMSIS surveys, based on factorial analysis and network analysis. The third chapter tests the hypothesis of labor market segmentation using an expanded Mincer equation with network variables and a Finite Mixture Model (FMM). The fourth chapter demonstrates the omnipresence and diversity of intermediaries in regulating the daily work of the lower castes, based on three networks providing access to employment. The ideal-typical figure of the maistry is eroding, but that of the broker is taking root in the face of social segregation. The last chapter examines these intermediaries from the perspective of caste-related power relations that are reproduced in the labor process. Are they agents of coercion or protection for workers?</t>
+  </si>
+  <si>
+    <t>Insights on Demonetisation from Rural Tamil Nadu: Understanding social networks and social protection</t>
+  </si>
+  <si>
+    <t>I. Guérin, Y. Lanos, S. Michiels, C. J. Nordman, G. Venkat</t>
+  </si>
+  <si>
+    <t>Demonetisation</t>
+  </si>
+  <si>
     <t>N1</t>
   </si>
   <si>
-    <t>N2</t>
+    <t>Economic and Political Weekly</t>
+  </si>
+  <si>
+    <t>https://hal.science/hal-01824464</t>
+  </si>
+  <si>
+    <t>DIAL</t>
+  </si>
+  <si>
+    <t>Drawing on survey data from rural Tamil Nadu, the effects of demonetisation are documented. Serious concerns arise with regard to the achievement of its stated goals. The rural economy was adversely affected in terms of employment, daily financial practices, and social network use for over three months. People came to rely more strongly on their networks to sustain their economic and social activities. Demonetisation has probably further marginalised those without support networks. In a context such as India, where state social protection is weak and governmental schemes are notoriously subject to patronage and clientelistic networks, dense networks of supportive relatives, friends and patrons remain key for safeguarding daily life. With cashless policies gaining currency in various parts of the world, we believe our findings have major implications, seriously questioning their merit, especially among the most marginalised segments of the population.</t>
+  </si>
+  <si>
+    <t>Why do financial inclusion policies fail in mobilizing savings from the poor? Lessons from rural south India</t>
+  </si>
+  <si>
+    <t>J. Goedecke</t>
+  </si>
+  <si>
+    <t>J. Goedecke, I. Guérin, B. D'Espallier, G. Venkat</t>
+  </si>
+  <si>
+    <t>Saving</t>
+  </si>
+  <si>
+    <t>Development Policy Review</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/dpr.12272</t>
+  </si>
+  <si>
+    <t>Combining multivariate and qualitative analyses, this micro-level study suggests an explanation for the persistence of informal savings in rural south India despite publicly run large-scale programmes to promote bank savings. Gold, in particular, but also Rotating Saving and Credit Associations (ROSCAs) and private lending, remain the dominant forms of savings. We argue that cultural norms and social institutions, such as social class and caste, shape the nature of savings, and also the propensity and opportunities to save. Gold serves multiple purposes, financial, economic, socio-cultural and political. Furthermore, we find that the preference of Dalits (the lowest caste) for gold illustrates a relative emancipation, which contrasts with the persistence of caste-related prohibitions preventing them investing in other assets, such as land.</t>
+  </si>
+  <si>
+    <t>The Gender of Debt and Credit: Insights from Rural Tamil Nadu</t>
+  </si>
+  <si>
+    <t>E. Reboul</t>
+  </si>
+  <si>
+    <t>E. Reboul, I. Guérin, C. J. Nordman</t>
+  </si>
+  <si>
+    <t>World Development</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.worlddev.2020.105363</t>
+  </si>
+  <si>
+    <t>CEB</t>
+  </si>
+  <si>
+    <t>IZA</t>
+  </si>
+  <si>
+    <t>The champions of financial inclusion regret women’s lack of access to credit, while critics of financialization, by contrast, claim that women have become overly indebted. But little is actually known about women’s debt/credit in quantitative terms, mostly due to a lack of data. This descriptive paper uses first-hand survey data from southern India disaggregated by sex in order to analyze the gender of debt and its interplay with caste and poverty, based on descriptive statistics and econometric results. We show that women are heavily indebted, first and foremost to informal sources, alongside microcredit. While men are much higher earners, they borrow much less in relative terms. Furthermore, women prominently – and markedly more so than men – borrow in order to make ends meet; productive investment largely remains a male practice. Lastly, women of the poorest and lowest-caste households have the heaviest borrowing responsibilities, managing the highest proportions of household debt. On a theoretical level, these results highlight the gendered earmarking of debt and credit: male and female debts/credits do not have the same meanings and uses. They also confirm the gendered dimension of behavior, in as much as women’s behavior is constrained by family affiliation, poverty level and caste, all of which affects men much less. Last, in terms of policy implications, these results put into question the specific targeting of women by microcredit policies, likely to strengthen the association between debt and poverty for women, and in particular to exacerbate female responsibilities for managing scarcity.</t>
+  </si>
+  <si>
+    <t>Many Rivers to Cross: Social Identity, Cognition, and Labor Mobility in Rural India</t>
+  </si>
+  <si>
+    <t>S. Michiels</t>
+  </si>
+  <si>
+    <t>S. Michiels, C. J. Nordman, S. Seetahul</t>
+  </si>
+  <si>
+    <t>Mobility</t>
+  </si>
+  <si>
+    <t>The ANNALS of the AAPSS</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/00027162211055990</t>
+  </si>
+  <si>
+    <t>This study analyzes whether individual skills and personality traits facilitate labor market mobility of disadvantaged groups and rural migrants. We use a panel dataset of individuals in rural South India to explore the relationship between individual cognitive skills, personality traits, and income mobility. We take advantage of intragroup heterogeneity in terms of cognitive skills and personality traits to examine whether these personal characteristics enable individuals to overcome rigid social structures, exploring the role of these skills and traits in migrants’ income mobility. We show that despite strong rigidity in the area’s labor market structure, personality traits are important determinants of labor mobility, enabling individuals to overcome caste and gender discrimination, but that these personality traits do not contribute to increases in migrants’ income mobility.</t>
+  </si>
+  <si>
+    <t>There Has Been No Silent Revolution: A Decade of Empowerment for Women in Rural Tamil Nadu</t>
+  </si>
+  <si>
+    <t>I. Guérin, S. Michiels, C. J. Nordman, E. Reboul, G. Venkat</t>
   </si>
   <si>
     <t>R, N1</t>
   </si>
   <si>
-    <t>N1, N2</t>
-  </si>
-  <si>
-    <t>R, N1, N2</t>
-  </si>
-  <si>
-    <t>Insights on Demonetisation from Rural Tamil Nadu: Understanding social networks and social protection</t>
-  </si>
-  <si>
-    <t>The Gender of Debt and Credit: Insights from Rural Tamil Nadu</t>
-  </si>
-  <si>
-    <t>E. Reboul, I. Guérin, C. J. Nordman</t>
-  </si>
-  <si>
-    <t>Debt</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>World Development</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.worlddev.2020.105363</t>
-  </si>
-  <si>
-    <t>Many Rivers to Cross: Social Identity, Cognition, and Labor Mobility in Rural India</t>
-  </si>
-  <si>
-    <t>S. Michiels, C. J. Nordman, S. Seetahul</t>
-  </si>
-  <si>
-    <t>Personality</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1177/00027162211055990</t>
+    <t>Emerald Publishing Limited</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1108/S1529-212620200000029008</t>
+  </si>
+  <si>
+    <t>In 2003, the then Chief Minister of Tamil Nadu in southern India, Jayaram Jayalalithaa, gave a speech about the “silent revolution” of the empowerment of Indian women. But 15 years on, regrettably, the promises of that revolution do not seem to have been fulfilled. Thanks to the various programs set up to champion women’s empowerment (involving local NGOs, public programs, and international support), women are now more prominent in certain public spaces and are able to play a genuine advocacy role with regard to the public authorities. Girls education has also significantly improved. But it has not brought about improved employment opportunities. Women are in fact losing out on paid employment (as is the case in India as a whole). They are also heavily indebted (not only from microcredit, but also informal lending and lending from private financial companies). Their indebtedness is disproportionate to their income, and compared to men. Moreover, women almost exclusively put debt toward the social reproduction of families. Reduced opportunities for paid employment and massive debt have hit Dalit women particularly hard. The analyses of this chapter use data collected over more than a decade in a rural area of Tamil Nadu, drawing together ethnography and quantitative data, including panel data (2010–2016). They shed light on the complexity of social change, intertwining forms of domination (here, caste, and gender), and the ambiguous qualities of so-called empowerment programs, whose impacts have been various and unexpected.</t>
+  </si>
+  <si>
+    <t>Locus de contrôle, identité sociale et endettement en Inde du Sud</t>
+  </si>
+  <si>
+    <t>Revue d'Economie du Développement</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3917/edd.362.0095</t>
+  </si>
+  <si>
+    <t>Using original data on 1,635 individuals from rural South India, we analyse the correlation between indebtedness, locus of control and social identity (gender and caste) among borrowers. While locus of control is correlated with debt negotiation, we observe that the relationship is strongest for non-Dalit men (middle and upper castes). This result suggests that a more internal locus of control is an additional asset in negotiation for individuals who already enjoy a favourable social position.</t>
+  </si>
+  <si>
+    <t>Modernisation, marchés du travail et circulation en Inde : Une approche mixte et multi-scalaire des migrations de travail</t>
+  </si>
+  <si>
+    <t>Migration</t>
+  </si>
+  <si>
+    <t>Université de Bordeaux</t>
+  </si>
+  <si>
+    <t>https://theses.hal.science/tel-01704245</t>
+  </si>
+  <si>
+    <t>The multiple economic, political and social changes that occurred in India since the liberalizationprocess initiated in the 1980’s altered the organization and the structure of labour. These structuralchanges reshaped migratory practices depending on workforce demand. This dissertation examineshow the labour market structuration in India has contributed to changing internal migration flows andhow migratory practices evolved. Therefore, to identify the links between labour markets andmigration flows, this study combines macro and micro levels of analysis. The dissertation is organizedas follows. The literature review synthetizes migration theories. Then, in the first part, we propose amacroeconomic analysis of the links between labour market and migration. Through a labour markettypology elaborated for different regions of India, we spatialize migration flows. In the second part,with a microeconomic focus and a mixed approach that combines both qualitative results from ourfieldwork conducted between 2010 and 2014 and quantitative results, we study the evolutions oflabour migration in rural Tamil Nadu. We identify migration patterns and establish the existence of adiversity of migratory practices.</t>
   </si>
   <si>
     <t>Surviving Debt and Survival Debt in Times of Lockdown</t>
   </si>
   <si>
+    <t>I. Guérin, S. Michiels, A. Natal, C. J. Nordman, G. Venkat</t>
+  </si>
+  <si>
+    <t>Covid</t>
+  </si>
+  <si>
+    <t>https://hal.science/hal-03509592</t>
+  </si>
+  <si>
+    <t>What are the consequences of the COVID-19 lockdown on household debt? Drawing on quantitative and qualitative data collected in rural Tamil Nadu, this paper highlights the massive risks of financial fragility. Quantitative data show a very high level of pre-COVID-19 debt, and the lockdown was accompanied by a large-scale suspension of repayments. At the same time, there was a halt to unsecured debt and an erosion of the trust that cements most transactions. Last, but not the least, the emergence of new forms of secured debt that seriously threaten household assets was observed.</t>
+  </si>
+  <si>
     <t>With a Little Help From My Friends? Surviving the Lockdown Using Social Networks in Rural South India</t>
   </si>
   <si>
     <t>I. Guérin, C. J. Nordman, C. Mouchel</t>
   </si>
   <si>
+    <t>South Asia Multidisciplinary Academic Journal</t>
+  </si>
+  <si>
     <t>https://doi.org/10.4000/samaj.8309</t>
   </si>
   <si>
-    <t>A. Natal</t>
-  </si>
-  <si>
-    <t>A. Natal, C. J. Nordman</t>
-  </si>
-  <si>
-    <t>Revue d'Economie du Développement</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3917/edd.362.0095</t>
-  </si>
-  <si>
-    <t>The ANNALS of the AAPSS</t>
+    <t>How have rural populations in India mobilised their social networks in times of forced “social distancing”? Focusing on a rural region in Tamil Nadu, mixing Social Network Analysis, descriptive statistics and qualitative interviews conducted before the lockdown, during the lockdown and its aftermath, this paper shows that kinship ties and caste-based relationships are still used as inescapable economic resources, especially when it comes to survive in this unprecedented worldwide economic and social crisis. The region under study has undergone profound changes in recent decades, combining the disappearance of agrarian forms of dependency and the emergence of economic solidarity among the lower castes (measured here in terms of homophily). The crisis is putting these social networks to the test. Subsidised food, the only pro-poor measure of the Indian government, prevented famine, even if it did not prevent severe malnutrition. Although strong ties (kin and caste solidarity) played a key role in helping households to survive, they did not prevent the resurgence of old forms of patronage.</t>
+  </si>
+  <si>
+    <t>A Decade in Rural Tamil Nadu: Socio-Economic, Labour and Migration Trends from an Original Longitudinal Household Survey</t>
+  </si>
+  <si>
+    <t>M. Di Santolo, I. Guérin, S. Michiels, C. Mouchel, A. Natal, C. J. Nordman, G. Venkat</t>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>https://hal.science/hal-04757717</t>
+  </si>
+  <si>
+    <t>In a context marked by many structural changes and high inequalities, longitudinal studies appear to be particularly useful and revealing in analysing the extent of socio-economic dynamics. This paper aims to propose a broad picture of socio-economic dynamics, in particular labour and migration, in rural areas of Tamil Nadu for the last decade using an original first-hand longitudinal survey called NEEMSIS (Networks, Employment, dEbt, Mobilities, and Skills in India Survey). Although NEEMSIS cannot compete with large-scale national surveys, it reveals what they miss by exploring finer socio-economic processes, such as household financial practices, transformation of work, individual’s access and use of social networks and cognition, and social mobility trajectories.</t>
   </si>
   <si>
     <t>Debt and the Politics of Numbers: Hegemonic Numbers, Political Numbers, Ordinary Numbers</t>
@@ -142,25 +574,22 @@
     <t>I. Guérin, G. Venkat</t>
   </si>
   <si>
-    <t>I. Guérin, S. Michiels, A. Natal, C. J. Nordman, G. Venkat</t>
+    <t>Review of Political Economy</t>
   </si>
   <si>
     <t>https://doi.org/10.1080/09538259.2024.2318959</t>
   </si>
   <si>
-    <t>Review of Political Economy</t>
-  </si>
-  <si>
-    <t>A Decade in Rural Tamil Nadu: Socio-Economic, Labour and Migration Trends from an Original Longitudinal Household Survey</t>
-  </si>
-  <si>
-    <t>M. Di Santolo, I. Guérin, S. Michiels, C. Mouchel, A. Natal, C. J. Nordman, G. Venkat</t>
-  </si>
-  <si>
-    <t>I. Guérin, Y. Lanos, S. Michiels, C. J. Nordman, G. Venkat</t>
-  </si>
-  <si>
-    <t>Demonetisation</t>
+    <t>Numbers are both shaped by and constitutive of a certain vision of the world, and household debt is no exception. Financialized capitalism relies on hegemonic numbers that serve the economic and political interests of state government and the financial industry, which see and measure debt as a market ripe for development. In the face of this, it is crucial to build alternative numbers. The political numbers of debt conceive debt as a power relation, and quantify the degrees of financial exploitation that hegemonic numbers are blind to. Ordinary numbers seek to reflect what matters the most to ordinary people. They conceive of debt as a relationship of social interdependence, which can be a source of power, hierarchy and exploitation, but also of mutual aid, reciprocity and dignity. Far from functioning in silos, hegemonic numbers, political numbers and ordinary numbers have shifting boundaries. This article, based on twenty years of research in India conducted by a Franco-Indian team of economists and anthropologists, exposes and contributes to the politics of numbers in the field of debt.</t>
+  </si>
+  <si>
+    <t>Gender and Debt, Past and Present: Financing Social Reproduction</t>
+  </si>
+  <si>
+    <t>Externs</t>
+  </si>
+  <si>
+    <t>The current interest for women’s access credit in the development field, from the angle of financial exclusion or credit rationing, contrasts with the marginal attention granted to the other face of the coin, debt. Little is known about women’s indebtedness, especially due to a lack of systematic sex-disaggregated data. Innovative data from household survey and Financial Diaries, collected in Tamil Nadu, South India, show here that despite their restricted access to property and meagre incomes, poor women often are actively involved in credit relations, prominently via informal transactions aside microcredit, and tend to be much more deeply indebted than men relatively their incomes. Taking into account women’s financial practices can radically alter the picture of their contribution to household reproduction suggested by their incomes. They get into debt by large, and more so than men, to ensure daily survival – but also to repay debts, whose management appears frequently as a female responsibility. Debt is in the Tamil context structured by gender (alongside caste and class) as a system of distribution of entitlements and responsibilities, but also as a system of meaning. This affects how, why and by whom debts are contracted, how they are repaid, and at which costs. These results are replaced into a broader perspective interrogating their peculiarities, via a detour through the European past: in early modern France and England, and in Victorian and Edwardian England. These literature reviews highlight in particular how social reproduction has historically been sustained by specific forms of debt, part of which – and sometimes most of which – contracted by women.</t>
   </si>
   <si>
     <t>Psychology of Debt in Rural South India</t>
@@ -169,859 +598,448 @@
     <t>https://doi.org/10.1080/00220388.2025.2451871</t>
   </si>
   <si>
+    <t>This study is the first attempt to examine the extent to which the Big Five personality traits and cognitive skills (Raven scores, numeracy, and literacy scores) are correlated with debt negotiation and debt management in a Global South country; and how social identity – in particular caste and gender – channels the effect of cognition on debt outcomes. Using a panel dataset built from an original household survey (called NEEMSIS) conducted in 2016–2017 and 2020–2021 in rural Tamil Nadu, India, and employing multivariate correlation probit analysis with lagged variables, we find the following. Firstly, conscientiousness is an advantage in the negotiation and management of debt, particularly for non-Dalit women, suggesting that, in a rural patriarchal context, women leverage personality traits to overcome the constraints of social identity. Secondly, emotional stability is a disadvantage in both debt negotiation and management. Thirdly, the role of cognition and in particular the Raven score is ambiguous.</t>
+  </si>
+  <si>
+    <t>Four essays on gender in rural India</t>
+  </si>
+  <si>
+    <t>M. Di Santolo</t>
+  </si>
+  <si>
+    <t>Decisionmaking</t>
+  </si>
+  <si>
+    <t>Université Paris Sciences et Lettres</t>
+  </si>
+  <si>
+    <t>https://theses.hal.science/tel-04903795</t>
+  </si>
+  <si>
+    <t>This dissertation examines gender inequalities in rural India, where, despite significant progress in recent decades, these disparities remain widespread. The study has two main objectives: first, to analyze the role of determinants that contribute to the persistence of gender inequalities, and second, to identify the factors that could support Indian society in moving toward greater gender equality. To meet these objectives, the first two chapters explore the impact of climate change and financial decision-making power on gender disparities in the labor market and indebtedness. The following chapters focus on sustainable approaches to reducing gender inequality. Chapter three emphasizes adolescence as a pivotal period for challenging deeply rooted sexist social norms, thereby fostering the intergenerational transmission of more egalitarian values. The fourth and final chapter investigates the role of community factors in the recent advancements toward reducing gender disparities in education. Overall, this research provides valuable insights into the contemporary drivers of gender inequality and the individual and community-level interventions required for Indian society to progress toward gender equality.</t>
+  </si>
+  <si>
+    <t>Cognitive and non-cognitive skills in developing countries</t>
+  </si>
+  <si>
+    <t>A. Hilger</t>
+  </si>
+  <si>
+    <t>https://theses.hal.science/tel-03168267</t>
+  </si>
+  <si>
+    <t>This dissertation examines the role that cognitive and non-cognitive skills play in developing countries along three axes: measurement of these skills, wage returns to them, and as determinants of levels of trust. The first chapter uses panel data from two cohorts of a skills training program in Mozambique to contrast two types of skill measurement: self-assessments and observational exercises. The chapter shows that self-assessments capture underlying traits, while observational exercises are better suited for program evaluations. The second chapter is based on a novel matched employer-employee data set representing the formal sector in Bangladesh and provides evidence of both the relative importance of cognitive and non-cognitive skills in this part of the labor market and the interplay between skills and hiring channels in determining wages. Results demonstrate positive returns to non-cognitive skills, varying by hiring channel. This chapter also offers suggestive evidence that employers might use hiring channels differently, depending on which skills they deem important. The third chapter makes use of the demonetization policy of November 2016 in India and a newly collected data set to causally identify the determinants of trust in a rural setting, controlling for a variety of individual characteristics, such as non-cognitive skills and cognitive ability, that could influence network formation and trust. We find that social interactions determine trust, though this result holds only among men and varies along the lines of caste membership.</t>
+  </si>
+  <si>
     <t>For money can’t buy me love? The political economy of marriages at the time of financialization</t>
   </si>
   <si>
     <t>I. Guérin, A. Natal, C. J. Nordman, G. Venkat</t>
   </si>
   <si>
-    <t>Marriage</t>
-  </si>
-  <si>
     <t>Contemporary South Asia</t>
   </si>
   <si>
     <t>https://doi.org/10.1080/09584935.2025.2494605</t>
   </si>
   <si>
+    <t>Anthropology has long shown that kinship, marriage, and systems of production and accumulation are deeply intertwined. In rural Tamil Nadu’s increasingly financialized landscape, marriages function less as a means of wealth transfer and more as mechanisms of debt circulation. Drawing on two decades of ethnographic research and three waves of a quantitative household survey in rural Tamil Nadu, this paper examines how growing dependence on financial capitalism shapes marriage decisions – who marries whom, at what cost, with what consequences. Quantitative analysis identifies broad trends and correlations, while ethnographic insights uncover the complex negotiations and trade-offs between families, linking individual and familial trajectories to the region’s political economy. While dowries have become widespread, their financial impact varies: families of grooms often use them to reduce debt, whereas families of brides see their financial burdens grow. Weddings and dowries reflect and reinforce the devaluation of women, mirroring agricultural decline, land fragmentation, and the precarious yet rising investment in education amid labor force proletarianization. Rather than offsetting inequalities, ceremonial gifts function as a reverse redistribution mechanism, benefiting wealthier, higher-caste families, particularly those with sons or those investing in education. Ultimately, the dowry system subsidizes both an unstable job market and the financial industry.</t>
+  </si>
+  <si>
+    <t>Networks, Employment, Debt, Mobilities, and Skills in India Survey (NEEMSIS): Presentation of a longitudinal data collection tool</t>
+  </si>
+  <si>
+    <t>C. J. Nordman, G. Venkat, I. Guérin, S. Michiels, C. Mouchel, A. Natal, M. Di Santolo</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>The authors present the “Networks, Employment, dEbt, Mobilities, and Skills in India Survey” (NEEMSIS) longitudinal dataset collected through a baseline survey conducted in 2010 and follow-up surveys since 2016 (2016-17 and 2020-21 for the time being) among more than 600 households in rural Tamil Nadu, India. The NEEMSIS survey aims to understand the links between labour, skills, financial practices, social and migration dynamics and social network formation in India. The data set is useful in many ways: (i) the data are able to capture processes that are poorly measured by national surveys in developing countries, (ii) compared to other micro-surveys, NEEMSIS benefits from the coverage of a relatively large population, (iii) the data cover a wide range of information on households and individuals, (iv) the longitudinal nature of NEEMSIS data means that it is possible to observe dynamics and changes over time.</t>
+  </si>
+  <si>
+    <t>L'encadrement du pouvoir des intermédiaires d'emploi pour les travailleurs journaliers de basses castes</t>
+  </si>
+  <si>
+    <t>Esclavages et post-esclavages</t>
+  </si>
+  <si>
+    <t>She Works Hard for the Money: Debt Burden and Labour Supply in India</t>
+  </si>
+  <si>
+    <t>For over 40 years, labour supply has been at the heart of empirical microeconomics, but few studies have examined the impact of household debt burdens on labour supply, and almost none on countries of the Global South. This research fills this gap by examining how debt burden - measured by the debt service ratio - affects labour supply (hours worked), among more than 3,200 individuals in rural Tamil Nadu, India, between 2016-2017 and 2020-2021. Using a Heckman correction with lagged debt ratios and fixed effects to account for unobserved factors and limit reverse causality, the study highlights that women increase their labour supply to repay household debt, regardless of which household member incurred it. Our results challenge the commonly held view in the South that women’s work is synonymous with empowerment, suggesting that it may be the result of economic pressures rather than a move towards autonomy.</t>
+  </si>
+  <si>
+    <t>Debt, Labour, and Cognition: Microeconomic Interactions in Rural South India</t>
+  </si>
+  <si>
+    <t>https://theses.hal.science/tel-04416190</t>
+  </si>
+  <si>
+    <t>This thesis examines various aspects of household indebtedness in a rural area of Tamil Nadu, South India. The main objective is twofold. The first is to analyse the effect of household financial vulnerability on labour supply, with particular attention to the measurement of financial vulnerability. The second is to analyse indebtedness at the individual level to apply a behavioural analytical framework by studying the correlation between personality traits, cognitive skills, and indebtedness. This objective is pursued through five essays in development economics. The first chapter provides background on India and presents the first-hand NEEMSIS panel data used throughout this thesis. The second chapter aims to advance research in development microeconomics by proposing a new measure of household financial vulnerability, called the financial vulnerability index, and presenting its main determinants over the decade 2010-2020. The third chapter assesses the effect of financial vulnerability (measured by the financial vulnerability index developed earlier) on household labour supply. The fourth and fifth chapters are devoted to individual behaviour. After detailing the measurement of personality traits using the Big Five taxonomy, the fourth chapter empirically tests the hypothesis of the temporal stability of these traits. Building on the results of the previous chapter, the fifth chapter analyses the contribution of personality traits and cognitive skills to debt use, negotiation, and management.</t>
+  </si>
+  <si>
+    <t>The Determinants of Trust: Evidence from Rural South India</t>
+  </si>
+  <si>
+    <t>A. Hilger, C. J. Nordman</t>
+  </si>
+  <si>
+    <t>Trust</t>
+  </si>
+  <si>
+    <t>WP only</t>
+  </si>
+  <si>
+    <t>https://hal.science/hal-02906199</t>
+  </si>
+  <si>
+    <t>Trust and participation in social networks are inherently interrelated. We make use of India’s demonetization policy, an unexpected and unforeseeable exogenous variation, to causally identify the effect of social networks in determining trust. We use first-hand quantitative and qualitative data from rural South India and control for individual characteristics (personality traits, cognitive ability) that could influence network formation and trust, finding that social interactions have a significant effect on trust among men, as well as across castes. Among lower castes, who live in homogeneous neighborhoods and relied on neighbors and employers to cope, extending one’s network lowers trust in neighbors. Among middle castes, who live in more heterogeneous neighborhoods and relied predominantly on other caste members, a larger network size leads to greater trust placed in kin among employees but lesser in neighbors. This paper thus shows that social interactions can foster trust and highlights the importance of clearly defining in- and out-groups in trust measures within highly segregated societies.</t>
+  </si>
+  <si>
+    <t>Taking the case of rural South India, we explore the universality of the Big Five personality traits and their stability over time. We then investigate the effects of two exogenous shocks on trait stability: the demonetisation of November 2016 and the second COVID-19 lockdown. We use an original longitudinal dataset collected in 2016-2017 and 2020-2021. After correcting the data for acquiescence bias and performing factor analysis, we find that three personality traits emerge: emotional stability, plasticity, and conscientiousness. We find no evidence of temporal stability. Results from the covariate-balancing propensity score weighting model shows that the demonetisation impacts plasticity and conscientiousness, with exposed individuals scoring notably higher. The second COVID-19 lockdown exerts a negative impact on emotional stability.</t>
+  </si>
+  <si>
+    <t>Unveiling Inequalities in Rural South India: A Decade of Household Income and Wealth Imbalances</t>
+  </si>
+  <si>
+    <t>Wealth</t>
+  </si>
+  <si>
+    <t>This study analyses longitudinal micro-data to explore income and wealth inequality and social mobility among rural households in southern India between 2010 and 2020. Analysing inequality at the jati level allows us to move beyond the broad administrative categories typically used in caste studies in India, and to better capture the actual social fragmentation. The results reveal an increase in income and wealth inequality, largely driven by non-agricultural income and land ownership. There is no clear relationship between income and wealth. Caste-based income inequality has declined overall, but income inequality among middle caste jatis remains stable and income inequality among upper caste jatis is declining. By contrast, wealth inequality between middle caste jatis has fallen, while that between upper caste jatis is rising. Social mobility shows significant volatility, with greater wealth mobility observed between 2010 and 2016-17 than between 2016-17 and 2020-21, while income mobility remained unchanged in both periods.</t>
+  </si>
+  <si>
+    <t>The Indebted Woman: Kinship, Sexuality, and Capitalism</t>
+  </si>
+  <si>
+    <t>I. Guérin, G. Venkat, S. Kumar</t>
+  </si>
+  <si>
     <t>Book</t>
   </si>
   <si>
-    <t>WP</t>
-  </si>
-  <si>
-    <t>The Indebted Woman: Kinship, Sexuality, and Capitalism</t>
-  </si>
-  <si>
-    <t>I. Guérin, G. Venkat, S. Kumar</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Stanford University Press</t>
   </si>
   <si>
-    <t>There Has Been No Silent Revolution: A Decade of Empowerment for Women in Rural Tamil Nadu</t>
-  </si>
-  <si>
-    <t>I. Guérin, S. Michiels, C. J. Nordman, E. Reboul, G. Venkat</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1108/S1529-212620200000029008</t>
-  </si>
-  <si>
-    <t>The Determinants of Trust: Evidence from Rural South India</t>
-  </si>
-  <si>
-    <t>A. Hilger, C. J. Nordman</t>
-  </si>
-  <si>
-    <t>Trust</t>
-  </si>
-  <si>
-    <t>Emerald Publishing Limited</t>
-  </si>
-  <si>
-    <t>She Works Hard for the Money: Debt Burden and Labour Supply in India</t>
-  </si>
-  <si>
-    <t>Networks, Employment, Debt, Mobilities, and Skills in India Survey (NEEMSIS): Presentation of a longitudinal data collection tool</t>
-  </si>
-  <si>
-    <t>C. J. Nordman, G. Venkat, I. Guérin, S. Michiels, C. Mouchel, A. Natal, M. Di Santolo</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>A Change is Gonna Come: Measure and Stability of Personality Traits in Rural South India</t>
-  </si>
-  <si>
-    <t>Unveiling Inequalities in Rural South India: A Decade of Household Income and Wealth Imbalances</t>
-  </si>
-  <si>
-    <t>Income</t>
-  </si>
-  <si>
-    <t>Inequality</t>
+    <t>https://hal.science/halshs-04145408</t>
+  </si>
+  <si>
+    <t>Women, and particularly poor women, have become essential cogs in the wheel of financialized capitalism. Globally, women are responsible for managing household debt, and that debt has exploded over the last decade, reaching an all-time high after the COVID-19 pandemic. Across various categories of loans, including subprime lending, microcredit policies, and consumer loans, as well as rent and utilities, women are overrepresented as clients and managers, and are being enfolded into the system. The Indebted Woman discusses the crucial yet invisible roles poor women play in making and consolidating debt and credit markets. The authors spent over two decades observing a credit market that specifically targets women in the Indian countryside of east-central Tamil Nadu. They found that paying off debts required labor, frequently involved sexual transactions, and shaped women’s bodies and subjectivities. Bringing together ethnography, statistical surveys, and financial diaries, they offer for the first time a comprehensive theory for this sexual division of debt that goes far beyond the Indian case, exposing the ways capitalism transforms womanhood and how this transformation in turn fuels capitalism.</t>
   </si>
   <si>
     <t>Tangled Up in Debt: Household Debt Trap and Its Effects on Spending in Rural India</t>
   </si>
   <si>
-    <t>Inégalités et mobilité de revenu dans des villages indiens : Résultats issus d'une micro-enquête longitudinale (2010 - 2020)</t>
-  </si>
-  <si>
-    <t>IRD Editions</t>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>While over-indebtedness has attracted increasing attention, the concept of “debt trap” (i.e., a situation in which a household is forced to borrow to repay its previous debts and meet its financial obligations) remains underexplored in the academic literature, despite growing concern among development practitioners. I address this gap by measuring the prevalence and intensity of debt traps and assessing their implications for household expenditure on food, health, and education in rural India. Using unique longitudinal data collected in rural India, I find that: (i) the incidence of debt traps more than doubled over the last decade, disproportionately affecting the poorest households; (ii) women are more likely than men to incur debt for repayment purposes and bear a larger burden of debt traps; and (iii) debt traps are negatively associated with spending on food and health, but show no significant effect on education expenditure. These findings raise critical policy questions.</t>
   </si>
   <si>
     <t>How personality traits and social identity shape interpersonal networks of poor people? A case study in South India</t>
   </si>
   <si>
-    <t>A. Natal, D. Girollet</t>
-  </si>
-  <si>
     <t>1-Ongoing</t>
   </si>
   <si>
-    <t>2-Submitted</t>
-  </si>
-  <si>
-    <t>3-Published</t>
-  </si>
-  <si>
-    <t>https://hal.science/halshs-04145408</t>
-  </si>
-  <si>
-    <t>https://hal.science/hal-04757717</t>
-  </si>
-  <si>
-    <t>https://hal.science/hal-03509592</t>
-  </si>
-  <si>
-    <t>https://hal.science/hal-01824464</t>
-  </si>
-  <si>
-    <t>Economic and Political Weekly</t>
-  </si>
-  <si>
-    <t>The Journal of Development Studies</t>
-  </si>
-  <si>
-    <t>https://hal.science/hal-02906199</t>
-  </si>
-  <si>
-    <t>WP1serie</t>
-  </si>
-  <si>
-    <t>WP1date</t>
-  </si>
-  <si>
-    <t>WP2serie</t>
-  </si>
-  <si>
-    <t>WP2date</t>
-  </si>
-  <si>
-    <t>DIAL</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>IZA</t>
-  </si>
-  <si>
-    <t>CEB</t>
+    <t>Empowerment or Burden? Rethinking the Role of Financial Decision-Making Power</t>
+  </si>
+  <si>
+    <t>M. Di Santolo, C. J. Nordman</t>
+  </si>
+  <si>
+    <t>Caste Inequalities through the Lens of Social Capital</t>
+  </si>
+  <si>
+    <t>C. Mouchel, C. J. Nordman</t>
+  </si>
+  <si>
+    <t>Inclusion féminine en Inde rurale. Entre promesses politiques et réalités sociales</t>
+  </si>
+  <si>
+    <t>Blog post</t>
+  </si>
+  <si>
+    <t>Dauphine eclairages</t>
+  </si>
+  <si>
+    <t>Le choc de la démonétisation indienne : les réseaux interpersonnels constituent-ils un filet de protection pour tous ?</t>
+  </si>
+  <si>
+    <t>I. Guérin, C. J. Nordman</t>
+  </si>
+  <si>
+    <t>DIALOGUE</t>
+  </si>
+  <si>
+    <t>Surviving the lockdown using social networks in rural South India</t>
+  </si>
+  <si>
+    <t>Coping with a policy shock in rural South India: Social networks as a determinant of trust</t>
+  </si>
+  <si>
+    <t>Ideas for India</t>
+  </si>
+  <si>
+    <t>Le coût social de la démonétisation indienne</t>
+  </si>
+  <si>
+    <t>IRD Le Mag</t>
+  </si>
+  <si>
+    <t>Apports et défis des micro-enquêtes longitudinales pour l’étude des inégalités en Inde rurale</t>
+  </si>
+  <si>
+    <t>MSH-Bx</t>
+  </si>
+  <si>
+    <t>Inégalités de revenu et de patrimoine en Inde du Sud : résultats à partir d’une micro-enquête longitudinale</t>
+  </si>
+  <si>
+    <t>Skills, Status, and Social Networks: New Research from South India</t>
+  </si>
+  <si>
+    <t>Survey CTO</t>
+  </si>
+  <si>
+    <t>The shock of Indian demonetisation: a failed attempt to formalise the economy</t>
+  </si>
+  <si>
+    <t>The Conversation</t>
+  </si>
+  <si>
+    <t>La centralité des intermédiaires d'emploi pour les emplois journaliers des basses castes</t>
+  </si>
+  <si>
+    <t>The Use of Social Networks in a Self-Inflicted Macroeconomic Shock Context: Demonetisation in India</t>
+  </si>
+  <si>
+    <t>Policy brief</t>
+  </si>
+  <si>
+    <t>NOPOOR</t>
+  </si>
+  <si>
+    <t>Why and how to measure household debt in informal economies?</t>
+  </si>
+  <si>
+    <t>I.Guérin, A. Natal, G. Venkat</t>
+  </si>
+  <si>
+    <t>ODRIIS Policy Brief</t>
+  </si>
+  <si>
+    <t>https://hal.science/hal-04622836</t>
+  </si>
+  <si>
+    <t>On the importance of measuring personality traits in household surveys</t>
+  </si>
+  <si>
+    <t>B. Kar, A. Natal, C. J. Nordman</t>
+  </si>
+  <si>
+    <t>https://hal.science/hal-05032232</t>
+  </si>
+  <si>
+    <t>RUME</t>
+  </si>
+  <si>
+    <t>NEEMIS-1</t>
+  </si>
+  <si>
+    <t>NEEMSIS-2</t>
+  </si>
+  <si>
+    <t>NEEMSIS-3</t>
+  </si>
+  <si>
+    <t>2016-2017</t>
+  </si>
+  <si>
+    <t>2020-2021</t>
+  </si>
+  <si>
+    <t>2025-2026</t>
+  </si>
+  <si>
+    <t>Isabelle Guérin</t>
+  </si>
+  <si>
+    <t>Christophe Jalil Nordman</t>
+  </si>
+  <si>
+    <t>G. Venkatasubramanian</t>
+  </si>
+  <si>
+    <t>Marc Roesch</t>
+  </si>
+  <si>
+    <t>Sébastien Michiels</t>
+  </si>
+  <si>
+    <t>Antoni Raj</t>
+  </si>
+  <si>
+    <t>Youna Lanos</t>
+  </si>
+  <si>
+    <t>Cécile Mouchel</t>
+  </si>
+  <si>
+    <t>Anne Hilger</t>
+  </si>
+  <si>
+    <t>Arnaud Natal</t>
+  </si>
+  <si>
+    <t>Santosh Kumar</t>
+  </si>
+  <si>
+    <t>Mary Di Santolo</t>
+  </si>
+  <si>
+    <t>Féodor Desplanques</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>SJR2024</t>
+  </si>
+  <si>
+    <t>Q-SJR2024</t>
+  </si>
+  <si>
+    <t>h-index</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Political Science</t>
+  </si>
+  <si>
+    <t>Sociology</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Social sciences</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>SAGE Publications Inc.</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>OpenEditions Journals</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>De Boeck Supérieur</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Taylor and Francis Ltd</t>
+  </si>
+  <si>
+    <t>Routledge</t>
+  </si>
+  <si>
+    <t>Demography</t>
+  </si>
+  <si>
+    <t>INED</t>
+  </si>
+  <si>
+    <t>Social Sciences</t>
+  </si>
+  <si>
+    <t>ISMEA</t>
+  </si>
+  <si>
+    <t>Wiley-Blackwell Publishing Ltd</t>
+  </si>
+  <si>
+    <t>Management</t>
   </si>
   <si>
     <t>Topics</t>
   </si>
   <si>
-    <t>Employment / Labour</t>
-  </si>
-  <si>
-    <t>Networks</t>
-  </si>
-  <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
-    <t>Wealth</t>
-  </si>
-  <si>
-    <t>Covid</t>
-  </si>
-  <si>
-    <t>Mobility</t>
-  </si>
-  <si>
-    <t>Caste</t>
-  </si>
-  <si>
-    <t>Migration</t>
-  </si>
-  <si>
-    <t>Education</t>
+    <t>South</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>N1, N2, N3</t>
   </si>
   <si>
     <t>Discrimination</t>
   </si>
   <si>
-    <t>Consumption</t>
-  </si>
-  <si>
-    <t>Topic5</t>
-  </si>
-  <si>
-    <t>Topic1</t>
-  </si>
-  <si>
-    <t>Topic2</t>
-  </si>
-  <si>
-    <t>Topic3</t>
-  </si>
-  <si>
-    <t>Topic4</t>
-  </si>
-  <si>
-    <t>Dettes, protections et solidarités en Inde du Sud</t>
-  </si>
-  <si>
-    <t>Economies et sociétés</t>
-  </si>
-  <si>
-    <t>https://econpapers.repec.org/paper/haljournl/hal-01135271.htm</t>
-  </si>
-  <si>
-    <t>Debt in Rural South India: Fragmentation, Social Regulation and Discrimination</t>
-  </si>
-  <si>
-    <t>I. Guérin, B. D'Espallier, G. Venkat</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1080/00220388.2012.720365</t>
-  </si>
-  <si>
-    <t>The Social Regulation of Markets: Why Microcredit Fails to Promote Jobs in Rural South India</t>
-  </si>
-  <si>
-    <t>Development and Change</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/dech.12197</t>
-  </si>
-  <si>
-    <t>Why do financial inclusion policies fail in mobilizing savings from the poor? Lessons from rural south India</t>
-  </si>
-  <si>
-    <t>J. Goedecke, I. Guérin, B. D'Espallier, G. Venkat</t>
-  </si>
-  <si>
-    <t>Saving</t>
-  </si>
-  <si>
-    <t>Development Policy Review</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/dpr.12272</t>
-  </si>
-  <si>
-    <t>Intra-household inequality and recourse to debt</t>
-  </si>
-  <si>
-    <t>M. Di Santolo, A. Natal</t>
-  </si>
-  <si>
-    <t>South Asia Multidisciplinary Academic Journal</t>
-  </si>
-  <si>
-    <t>Empowerment or Burden? Rethinking the Role of Financial Decision-Making Power</t>
-  </si>
-  <si>
-    <t>M. Di Santolo, C. J. Nordman</t>
-  </si>
-  <si>
-    <t>Main author</t>
-  </si>
-  <si>
-    <t>A. Hilger</t>
-  </si>
-  <si>
-    <t>I. Guérin</t>
-  </si>
-  <si>
-    <t>M. Di Santolo</t>
-  </si>
-  <si>
-    <t>E. Reboul</t>
-  </si>
-  <si>
-    <t>S. Michiels</t>
-  </si>
-  <si>
-    <t>C. J. Nordman</t>
-  </si>
-  <si>
-    <t>J. Goedecke</t>
-  </si>
-  <si>
-    <t>C. Mouchel</t>
-  </si>
-  <si>
-    <t>Université Paris Cité</t>
-  </si>
-  <si>
-    <t>Université de Bordeaux</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Tamil</t>
-  </si>
-  <si>
-    <t>Modernisation, marchés du travail et circulation en Inde : Une approche mixte et multi-scalaire des migrations de travail</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Dissertation</t>
-  </si>
-  <si>
-    <t>Policy brief</t>
-  </si>
-  <si>
-    <t>4-Finished</t>
-  </si>
-  <si>
-    <t>Journal article</t>
-  </si>
-  <si>
-    <t>Book chapter</t>
-  </si>
-  <si>
-    <t>WP only</t>
-  </si>
-  <si>
-    <t>https://theses.hal.science/tel-01704245</t>
-  </si>
-  <si>
-    <t>L'encadrement du pouvoir des intermédiaires d'emploi pour les travailleurs journaliers de basses castes</t>
-  </si>
-  <si>
-    <t>Cognitive and non-cognitive skills in developing countries</t>
-  </si>
-  <si>
-    <t>Université Paris Sciences et Lettres</t>
-  </si>
-  <si>
-    <t>https://theses.hal.science/tel-03168267</t>
-  </si>
-  <si>
-    <t>Gender and Debt, Past and Present: Financing Social Reproduction</t>
-  </si>
-  <si>
-    <t>Debt, Labour, and Cognition: Microeconomic Interactions in Rural South India</t>
-  </si>
-  <si>
-    <t>https://theses.hal.science/tel-04416190</t>
-  </si>
-  <si>
-    <t>Four essays on gender in rural India</t>
-  </si>
-  <si>
-    <t>Réseaux interpersonnels et trajectoires d’emploi individuelles dans les zones rurales d’Inde du Sud</t>
-  </si>
-  <si>
-    <t>https://theses.hal.science/tel-04903795</t>
-  </si>
-  <si>
-    <t>The Use of Social Networks in a Self-Inflicted Macroeconomic Shock Context: Demonetisation in India</t>
-  </si>
-  <si>
-    <t>NOPOOR</t>
-  </si>
-  <si>
-    <t>Why and how to measure household debt in informal economies?</t>
-  </si>
-  <si>
-    <t>I.Guérin, A. Natal, G. Venkat</t>
-  </si>
-  <si>
-    <t>ODRIIS Policy Brief</t>
-  </si>
-  <si>
-    <t>https://hal.science/hal-04622836</t>
-  </si>
-  <si>
-    <t>On the importance of measuring personality traits in household surveys</t>
-  </si>
-  <si>
-    <t>B. Kar, A. Natal, C. J. Nordman</t>
-  </si>
-  <si>
-    <t>https://hal.science/hal-05032232</t>
-  </si>
-  <si>
-    <t>Skills, Status, and Social Networks: New Research from South India</t>
-  </si>
-  <si>
-    <t>Blog post</t>
-  </si>
-  <si>
-    <t>Survey CTO</t>
-  </si>
-  <si>
-    <t>Le choc de la démonétisation indienne : les réseaux interpersonnels constituent-ils un filet de protection pour tous ?</t>
-  </si>
-  <si>
-    <t>I. Guérin, C. J. Nordman</t>
-  </si>
-  <si>
-    <t>DIALOGUE</t>
-  </si>
-  <si>
-    <t>The shock of Indian demonetisation: a failed attempt to formalise the economy</t>
-  </si>
-  <si>
-    <t>The Conversation</t>
-  </si>
-  <si>
-    <t>Coping with a policy shock in rural South India: Social networks as a determinant of trust</t>
-  </si>
-  <si>
-    <t>Ideas for India</t>
-  </si>
-  <si>
-    <t>Le coût social de la démonétisation indienne</t>
-  </si>
-  <si>
-    <t>IRD Le Mag</t>
-  </si>
-  <si>
-    <t>Surviving the lockdown using social networks in rural South India</t>
-  </si>
-  <si>
-    <t>C. Mouchel, C. J. Nordman</t>
-  </si>
-  <si>
-    <t>Apports et défis des micro-enquêtes longitudinales pour l’étude des inégalités en Inde rurale</t>
-  </si>
-  <si>
-    <t>MSH-Bx</t>
-  </si>
-  <si>
-    <t>Dauphine eclairages</t>
-  </si>
-  <si>
-    <t>Inclusion féminine en Inde rurale. Entre promesses politiques et réalités sociales</t>
-  </si>
-  <si>
-    <t>Inégalités de revenu et de patrimoine en Inde du Sud : résultats à partir d’une micro-enquête longitudinale</t>
-  </si>
-  <si>
-    <t>SJR2024</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Q-SJR2024</t>
-  </si>
-  <si>
-    <t>h-index</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Economics</t>
-  </si>
-  <si>
-    <t>Political Science</t>
-  </si>
-  <si>
-    <t>Sociology</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
-    <t>Geography</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Social sciences</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Elsevier B.V.</t>
-  </si>
-  <si>
-    <t>SAGE Publications Inc.</t>
-  </si>
-  <si>
-    <t>OpenEditions Journals</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>De Boeck Supérieur</t>
-  </si>
-  <si>
-    <t>Routledge</t>
-  </si>
-  <si>
-    <t>Demography</t>
-  </si>
-  <si>
-    <t>INED</t>
-  </si>
-  <si>
-    <t>Social Sciences</t>
-  </si>
-  <si>
-    <t>ISMEA</t>
-  </si>
-  <si>
-    <t>Wiley-Blackwell Publishing Ltd</t>
-  </si>
-  <si>
-    <t>Taylor and Francis Ltd</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>Cite-sep25</t>
-  </si>
-  <si>
-    <t>Cite-N-sep252</t>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>The Ties That Bind: Lender-Borrower Relationships and Indebtedness in Rural South India</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>N3</t>
-  </si>
-  <si>
-    <t>R, N1, N2, N3</t>
-  </si>
-  <si>
-    <t>N1, N2, N3</t>
-  </si>
-  <si>
-    <t>N2, N3</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>The Financial Burden of Education in Rural South India</t>
-  </si>
-  <si>
-    <t>Idea</t>
-  </si>
-  <si>
-    <t>Study the effects of lender-borrower relationships on the loan characteristics.</t>
-  </si>
-  <si>
-    <t>Study the effects of intra-household inequality on household/individuel indebtedness (recourse, burden). We will measure intra-household inequality with individualised consumption data from NEEMSIS-3.</t>
-  </si>
-  <si>
-    <t>Supp co-authors?</t>
-  </si>
-  <si>
-    <t>Team 1</t>
-  </si>
-  <si>
-    <t>Team 2</t>
-  </si>
-  <si>
-    <t>Mixed</t>
-  </si>
-  <si>
-    <t>Team 3</t>
-  </si>
-  <si>
-    <t>North</t>
-  </si>
-  <si>
-    <t>South</t>
-  </si>
-  <si>
-    <t>Men</t>
-  </si>
-  <si>
-    <t>Women</t>
-  </si>
-  <si>
-    <t>Interns</t>
-  </si>
-  <si>
-    <t>Externs</t>
-  </si>
-  <si>
-    <t>Esclavages et post-esclavages</t>
-  </si>
-  <si>
-    <t>Decisionmaking</t>
-  </si>
-  <si>
-    <t>From dissertation?</t>
-  </si>
-  <si>
-    <t>Women, and particularly poor women, have become essential cogs in the wheel of financialized capitalism. Globally, women are responsible for managing household debt, and that debt has exploded over the last decade, reaching an all-time high after the COVID-19 pandemic. Across various categories of loans, including subprime lending, microcredit policies, and consumer loans, as well as rent and utilities, women are overrepresented as clients and managers, and are being enfolded into the system. The Indebted Woman discusses the crucial yet invisible roles poor women play in making and consolidating debt and credit markets. The authors spent over two decades observing a credit market that specifically targets women in the Indian countryside of east-central Tamil Nadu. They found that paying off debts required labor, frequently involved sexual transactions, and shaped women’s bodies and subjectivities. Bringing together ethnography, statistical surveys, and financial diaries, they offer for the first time a comprehensive theory for this sexual division of debt that goes far beyond the Indian case, exposing the ways capitalism transforms womanhood and how this transformation in turn fuels capitalism.</t>
-  </si>
-  <si>
-    <t>In 2003, the then Chief Minister of Tamil Nadu in southern India, Jayaram Jayalalithaa, gave a speech about the “silent revolution” of the empowerment of Indian women. But 15 years on, regrettably, the promises of that revolution do not seem to have been fulfilled. Thanks to the various programs set up to champion women’s empowerment (involving local NGOs, public programs, and international support), women are now more prominent in certain public spaces and are able to play a genuine advocacy role with regard to the public authorities. Girls education has also significantly improved. But it has not brought about improved employment opportunities. Women are in fact losing out on paid employment (as is the case in India as a whole). They are also heavily indebted (not only from microcredit, but also informal lending and lending from private financial companies). Their indebtedness is disproportionate to their income, and compared to men. Moreover, women almost exclusively put debt toward the social reproduction of families. Reduced opportunities for paid employment and massive debt have hit Dalit women particularly hard. The analyses of this chapter use data collected over more than a decade in a rural area of Tamil Nadu, drawing together ethnography and quantitative data, including panel data (2010–2016). They shed light on the complexity of social change, intertwining forms of domination (here, caste, and gender), and the ambiguous qualities of so-called empowerment programs, whose impacts have been various and unexpected.</t>
-  </si>
-  <si>
-    <t>This dissertation examines the role that cognitive and non-cognitive skills play in developing countries along three axes: measurement of these skills, wage returns to them, and as determinants of levels of trust. The first chapter uses panel data from two cohorts of a skills training program in Mozambique to contrast two types of skill measurement: self-assessments and observational exercises. The chapter shows that self-assessments capture underlying traits, while observational exercises are better suited for program evaluations. The second chapter is based on a novel matched employer-employee data set representing the formal sector in Bangladesh and provides evidence of both the relative importance of cognitive and non-cognitive skills in this part of the labor market and the interplay between skills and hiring channels in determining wages. Results demonstrate positive returns to non-cognitive skills, varying by hiring channel. This chapter also offers suggestive evidence that employers might use hiring channels differently, depending on which skills they deem important. The third chapter makes use of the demonetization policy of November 2016 in India and a newly collected data set to causally identify the determinants of trust in a rural setting, controlling for a variety of individual characteristics, such as non-cognitive skills and cognitive ability, that could influence network formation and trust. We find that social interactions determine trust, though this result holds only among men and varies along the lines of caste membership.</t>
-  </si>
-  <si>
-    <t>The current interest for women’s access credit in the development field, from the angle of financial exclusion or credit rationing, contrasts with the marginal attention granted to the other face of the coin, debt. Little is known about women’s indebtedness, especially due to a lack of systematic sex-disaggregated data. Innovative data from household survey and Financial Diaries, collected in Tamil Nadu, South India, show here that despite their restricted access to property and meagre incomes, poor women often are actively involved in credit relations, prominently via informal transactions aside microcredit, and tend to be much more deeply indebted than men relatively their incomes. Taking into account women’s financial practices can radically alter the picture of their contribution to household reproduction suggested by their incomes. They get into debt by large, and more so than men, to ensure daily survival – but also to repay debts, whose management appears frequently as a female responsibility. Debt is in the Tamil context structured by gender (alongside caste and class) as a system of distribution of entitlements and responsibilities, but also as a system of meaning. This affects how, why and by whom debts are contracted, how they are repaid, and at which costs. These results are replaced into a broader perspective interrogating their peculiarities, via a detour through the European past: in early modern France and England, and in Victorian and Edwardian England. These literature reviews highlight in particular how social reproduction has historically been sustained by specific forms of debt, part of which – and sometimes most of which – contracted by women.</t>
-  </si>
-  <si>
-    <t>This thesis examines various aspects of household indebtedness in a rural area of Tamil Nadu, South India. The main objective is twofold. The first is to analyse the effect of household financial vulnerability on labour supply, with particular attention to the measurement of financial vulnerability. The second is to analyse indebtedness at the individual level to apply a behavioural analytical framework by studying the correlation between personality traits, cognitive skills, and indebtedness. This objective is pursued through five essays in development economics. The first chapter provides background on India and presents the first-hand NEEMSIS panel data used throughout this thesis. The second chapter aims to advance research in development microeconomics by proposing a new measure of household financial vulnerability, called the financial vulnerability index, and presenting its main determinants over the decade 2010-2020. The third chapter assesses the effect of financial vulnerability (measured by the financial vulnerability index developed earlier) on household labour supply. The fourth and fifth chapters are devoted to individual behaviour. After detailing the measurement of personality traits using the Big Five taxonomy, the fourth chapter empirically tests the hypothesis of the temporal stability of these traits. Building on the results of the previous chapter, the fifth chapter analyses the contribution of personality traits and cognitive skills to debt use, negotiation, and management.</t>
-  </si>
-  <si>
-    <t>This dissertation examines gender inequalities in rural India, where, despite significant progress in recent decades, these disparities remain widespread. The study has two main objectives: first, to analyze the role of determinants that contribute to the persistence of gender inequalities, and second, to identify the factors that could support Indian society in moving toward greater gender equality. To meet these objectives, the first two chapters explore the impact of climate change and financial decision-making power on gender disparities in the labor market and indebtedness. The following chapters focus on sustainable approaches to reducing gender inequality. Chapter three emphasizes adolescence as a pivotal period for challenging deeply rooted sexist social norms, thereby fostering the intergenerational transmission of more egalitarian values. The fourth and final chapter investigates the role of community factors in the recent advancements toward reducing gender disparities in education. Overall, this research provides valuable insights into the contemporary drivers of gender inequality and the individual and community-level interventions required for Indian society to progress toward gender equality.</t>
-  </si>
-  <si>
-    <t>Drawing on survey data from rural Tamil Nadu, the effects of demonetisation are documented. Serious concerns arise with regard to the achievement of its stated goals. The rural economy was adversely affected in terms of employment, daily financial practices, and social network use for over three months. People came to rely more strongly on their networks to sustain their economic and social activities. Demonetisation has probably further marginalised those without support networks. In a context such as India, where state social protection is weak and governmental schemes are notoriously subject to patronage and clientelistic networks, dense networks of supportive relatives, friends and patrons remain key for safeguarding daily life. With cashless policies gaining currency in various parts of the world, we believe our findings have major implications, seriously questioning their merit, especially among the most marginalised segments of the population.</t>
-  </si>
-  <si>
-    <t>The champions of financial inclusion regret women’s lack of access to credit, while critics of financialization, by contrast, claim that women have become overly indebted. But little is actually known about women’s debt/credit in quantitative terms, mostly due to a lack of data. This descriptive paper uses first-hand survey data from southern India disaggregated by sex in order to analyze the gender of debt and its interplay with caste and poverty, based on descriptive statistics and econometric results. We show that women are heavily indebted, first and foremost to informal sources, alongside microcredit. While men are much higher earners, they borrow much less in relative terms. Furthermore, women prominently – and markedly more so than men – borrow in order to make ends meet; productive investment largely remains a male practice. Lastly, women of the poorest and lowest-caste households have the heaviest borrowing responsibilities, managing the highest proportions of household debt. On a theoretical level, these results highlight the gendered earmarking of debt and credit: male and female debts/credits do not have the same meanings and uses. They also confirm the gendered dimension of behavior, in as much as women’s behavior is constrained by family affiliation, poverty level and caste, all of which affects men much less. Last, in terms of policy implications, these results put into question the specific targeting of women by microcredit policies, likely to strengthen the association between debt and poverty for women, and in particular to exacerbate female responsibilities for managing scarcity.</t>
-  </si>
-  <si>
-    <t>This study analyzes whether individual skills and personality traits facilitate labor market mobility of disadvantaged groups and rural migrants. We use a panel dataset of individuals in rural South India to explore the relationship between individual cognitive skills, personality traits, and income mobility. We take advantage of intragroup heterogeneity in terms of cognitive skills and personality traits to examine whether these personal characteristics enable individuals to overcome rigid social structures, exploring the role of these skills and traits in migrants’ income mobility. We show that despite strong rigidity in the area’s labor market structure, personality traits are important determinants of labor mobility, enabling individuals to overcome caste and gender discrimination, but that these personality traits do not contribute to increases in migrants’ income mobility.</t>
-  </si>
-  <si>
-    <t>What are the consequences of the COVID-19 lockdown on household debt? Drawing on quantitative and qualitative data collected in rural Tamil Nadu, this paper highlights the massive risks of financial fragility. Quantitative data show a very high level of pre-COVID-19 debt, and the lockdown was accompanied by a large-scale suspension of repayments. At the same time, there was a halt to unsecured debt and an erosion of the trust that cements most transactions. Last, but not the least, the emergence of new forms of secured debt that seriously threaten household assets was observed.</t>
-  </si>
-  <si>
-    <t>How have rural populations in India mobilised their social networks in times of forced “social distancing”? Focusing on a rural region in Tamil Nadu, mixing Social Network Analysis, descriptive statistics and qualitative interviews conducted before the lockdown, during the lockdown and its aftermath, this paper shows that kinship ties and caste-based relationships are still used as inescapable economic resources, especially when it comes to survive in this unprecedented worldwide economic and social crisis. The region under study has undergone profound changes in recent decades, combining the disappearance of agrarian forms of dependency and the emergence of economic solidarity among the lower castes (measured here in terms of homophily). The crisis is putting these social networks to the test. Subsidised food, the only pro-poor measure of the Indian government, prevented famine, even if it did not prevent severe malnutrition. Although strong ties (kin and caste solidarity) played a key role in helping households to survive, they did not prevent the resurgence of old forms of patronage.</t>
-  </si>
-  <si>
-    <t>Numbers are both shaped by and constitutive of a certain vision of the world, and household debt is no exception. Financialized capitalism relies on hegemonic numbers that serve the economic and political interests of state government and the financial industry, which see and measure debt as a market ripe for development. In the face of this, it is crucial to build alternative numbers. The political numbers of debt conceive debt as a power relation, and quantify the degrees of financial exploitation that hegemonic numbers are blind to. Ordinary numbers seek to reflect what matters the most to ordinary people. They conceive of debt as a relationship of social interdependence, which can be a source of power, hierarchy and exploitation, but also of mutual aid, reciprocity and dignity. Far from functioning in silos, hegemonic numbers, political numbers and ordinary numbers have shifting boundaries. This article, based on twenty years of research in India conducted by a Franco-Indian team of economists and anthropologists, exposes and contributes to the politics of numbers in the field of debt.</t>
-  </si>
-  <si>
-    <t>In a context marked by many structural changes and high inequalities, longitudinal studies appear to be particularly useful and revealing in analysing the extent of socio-economic dynamics. This paper aims to propose a broad picture of socio-economic dynamics, in particular labour and migration, in rural areas of Tamil Nadu for the last decade using an original first-hand longitudinal survey called NEEMSIS (Networks, Employment, dEbt, Mobilities, and Skills in India Survey). Although NEEMSIS cannot compete with large-scale national surveys, it reveals what they miss by exploring finer socio-economic processes, such as household financial practices, transformation of work, individual’s access and use of social networks and cognition, and social mobility trajectories.</t>
-  </si>
-  <si>
-    <t>This study is the first attempt to examine the extent to which the Big Five personality traits and cognitive skills (Raven scores, numeracy, and literacy scores) are correlated with debt negotiation and debt management in a Global South country; and how social identity – in particular caste and gender – channels the effect of cognition on debt outcomes. Using a panel dataset built from an original household survey (called NEEMSIS) conducted in 2016–2017 and 2020–2021 in rural Tamil Nadu, India, and employing multivariate correlation probit analysis with lagged variables, we find the following. Firstly, conscientiousness is an advantage in the negotiation and management of debt, particularly for non-Dalit women, suggesting that, in a rural patriarchal context, women leverage personality traits to overcome the constraints of social identity. Secondly, emotional stability is a disadvantage in both debt negotiation and management. Thirdly, the role of cognition and in particular the Raven score is ambiguous.</t>
-  </si>
-  <si>
-    <t>Anthropology has long shown that kinship, marriage, and systems of production and accumulation are deeply intertwined. In rural Tamil Nadu’s increasingly financialized landscape, marriages function less as a means of wealth transfer and more as mechanisms of debt circulation. Drawing on two decades of ethnographic research and three waves of a quantitative household survey in rural Tamil Nadu, this paper examines how growing dependence on financial capitalism shapes marriage decisions – who marries whom, at what cost, with what consequences. Quantitative analysis identifies broad trends and correlations, while ethnographic insights uncover the complex negotiations and trade-offs between families, linking individual and familial trajectories to the region’s political economy. While dowries have become widespread, their financial impact varies: families of grooms often use them to reduce debt, whereas families of brides see their financial burdens grow. Weddings and dowries reflect and reinforce the devaluation of women, mirroring agricultural decline, land fragmentation, and the precarious yet rising investment in education amid labor force proletarianization. Rather than offsetting inequalities, ceremonial gifts function as a reverse redistribution mechanism, benefiting wealthier, higher-caste families, particularly those with sons or those investing in education. Ultimately, the dowry system subsidizes both an unstable job market and the financial industry.</t>
-  </si>
-  <si>
-    <t>The authors present the “Networks, Employment, dEbt, Mobilities, and Skills in India Survey” (NEEMSIS) longitudinal dataset collected through a baseline survey conducted in 2010 and follow-up surveys since 2016 (2016-17 and 2020-21 for the time being) among more than 600 households in rural Tamil Nadu, India. The NEEMSIS survey aims to understand the links between labour, skills, financial practices, social and migration dynamics and social network formation in India. The data set is useful in many ways: (i) the data are able to capture processes that are poorly measured by national surveys in developing countries, (ii) compared to other micro-surveys, NEEMSIS benefits from the coverage of a relatively large population, (iii) the data cover a wide range of information on households and individuals, (iv) the longitudinal nature of NEEMSIS data means that it is possible to observe dynamics and changes over time.</t>
-  </si>
-  <si>
-    <t>I. Guérin, M. Roesch, S. Michiels, G. Venkat</t>
-  </si>
-  <si>
-    <t>Locus de contrôle, identité sociale et endettement en Inde du Sud</t>
-  </si>
-  <si>
-    <t>This micro-level study combines multivariate and qualitative analyses to highlight the fragmented nature of debt in southern Indian rural households. It finds that debt is socially regulated in the sense that social interactions shape the cost, use and access to debt. Caste, social class and location affect how individuals borrow varying amounts from distinct money providers, for varied purposes and at differing costs. Debt thus is not purely an economic but first and foremost a social transaction which inscribes debtors and creditors into local systems of hierarchies. Furthermore, we find that debt is an illustration and catalyst of broader socio-economic and political trends, namely a lack of social protection, persistent under-employment and rising consumerism. In terms of policy implications, the study highlights the ambiguities and illusions inherent to ‘financial inclusion' policies aiming to eradicate informal debt.</t>
-  </si>
-  <si>
-    <t>There is growing evidence that microcredit does little to support self-employment. Two main explanations are typically emphasized: from a microeconomic perspective, the poor have been argued to lack the skills, resources and motivation to start their own businesses; from a macroeconomic perspective, local markets are often saturated. This article uses first-hand data from rural South India to explore a third explanation which focuses on the social regulation of markets. Drawing on a household survey, the authors show that self-employment and microcredit are uncorrelated, and that women and lower castes have a significantly lower chance of starting up a business. The businesses they do start tend to be smaller, less profitable and based in very specific sectors. Qualitative insights into the workings of local economies show that caste and gender-based social regulations influence local markets determining who can produce or sell what, to whom, and at what price. The authors observe that real markets are affected by power relations and structured through social institutions rather than being the sum of interactions between free and competitive individuals. These findings show the importance of integrating self-employment programmes into broader policies for transforming the social regulation of markets and for eradicating discrimination against women and lower castes.</t>
-  </si>
-  <si>
-    <t>Combining multivariate and qualitative analyses, this micro-level study suggests an explanation for the persistence of informal savings in rural south India despite publicly run large-scale programmes to promote bank savings. Gold, in particular, but also Rotating Saving and Credit Associations (ROSCAs) and private lending, remain the dominant forms of savings. We argue that cultural norms and social institutions, such as social class and caste, shape the nature of savings, and also the propensity and opportunities to save. Gold serves multiple purposes, financial, economic, socio-cultural and political. Furthermore, we find that the preference of Dalits (the lowest caste) for gold illustrates a relative emancipation, which contrasts with the persistence of caste-related prohibitions preventing them investing in other assets, such as land.</t>
-  </si>
-  <si>
-    <t>Trust and participation in social networks are inherently interrelated. We make use of India’s demonetization policy, an unexpected and unforeseeable exogenous variation, to causally identify the effect of social networks in determining trust. We use first-hand quantitative and qualitative data from rural South India and control for individual characteristics (personality traits, cognitive ability) that could influence network formation and trust, finding that social interactions have a significant effect on trust among men, as well as across castes. Among lower castes, who live in homogeneous neighborhoods and relied on neighbors and employers to cope, extending one’s network lowers trust in neighbors. Among middle castes, who live in more heterogeneous neighborhoods and relied predominantly on other caste members, a larger network size leads to greater trust placed in kin among employees but lesser in neighbors. This paper thus shows that social interactions can foster trust and highlights the importance of clearly defining in- and out-groups in trust measures within highly segregated societies.</t>
-  </si>
-  <si>
-    <t>For over 40 years, labour supply has been at the heart of empirical microeconomics, but few studies have examined the impact of household debt burdens on labour supply, and almost none on countries of the Global South. This research fills this gap by examining how debt burden - measured by the debt service ratio - affects labour supply (hours worked), among more than 3,200 individuals in rural Tamil Nadu, India, between 2016-2017 and 2020-2021. Using a Heckman correction with lagged debt ratios and fixed effects to account for unobserved factors and limit reverse causality, the study highlights that women increase their labour supply to repay household debt, regardless of which household member incurred it. Our results challenge the commonly held view in the South that women’s work is synonymous with empowerment, suggesting that it may be the result of economic pressures rather than a move towards autonomy.</t>
-  </si>
-  <si>
-    <t>Taking the case of rural South India, we explore the universality of the Big Five personality traits and their stability over time. We then investigate the effects of two exogenous shocks on trait stability: the demonetisation of November 2016 and the second COVID-19 lockdown. We use an original longitudinal dataset collected in 2016-2017 and 2020-2021. After correcting the data for acquiescence bias and performing factor analysis, we find that three personality traits emerge: emotional stability, plasticity, and conscientiousness. We find no evidence of temporal stability. Results from the covariate-balancing propensity score weighting model shows that the demonetisation impacts plasticity and conscientiousness, with exposed individuals scoring notably higher. The second COVID-19 lockdown exerts a negative impact on emotional stability.</t>
-  </si>
-  <si>
-    <t>This study analyses longitudinal micro-data to explore income and wealth inequality and social mobility among rural households in southern India between 2010 and 2020. Analysing inequality at the jati level allows us to move beyond the broad administrative categories typically used in caste studies in India, and to better capture the actual social fragmentation. The results reveal an increase in income and wealth inequality, largely driven by non-agricultural income and land ownership. There is no clear relationship between income and wealth. Caste-based income inequality has declined overall, but income inequality among middle caste jatis remains stable and income inequality among upper caste jatis is declining. By contrast, wealth inequality between middle caste jatis has fallen, while that between upper caste jatis is rising. Social mobility shows significant volatility, with greater wealth mobility observed between 2010 and 2016-17 than between 2016-17 and 2020-21, while income mobility remained unchanged in both periods.</t>
-  </si>
-  <si>
-    <t>While over-indebtedness has attracted increasing attention, the concept of “debt trap” (i.e., a situation in which a household is forced to borrow to repay its previous debts and meet its financial obligations) remains underexplored in the academic literature, despite growing concern among development practitioners. I address this gap by measuring the prevalence and intensity of debt traps and assessing their implications for household expenditure on food, health, and education in rural India. Using unique longitudinal data collected in rural India, I find that: (i) the incidence of debt traps more than doubled over the last decade, disproportionately affecting the poorest households; (ii) women are more likely than men to incur debt for repayment purposes and bear a larger burden of debt traps; and (iii) debt traps are negatively associated with spending on food and health, but show no significant effect on education expenditure. These findings raise critical policy questions.</t>
-  </si>
-  <si>
-    <t>The curse of having a job. Threats on female employment in a context of rising patriarcal norms</t>
-  </si>
-  <si>
-    <t>Caste Inequalities through the Lens of Social Capital</t>
-  </si>
-  <si>
-    <t>The Role of Networks in Labor Market Segmentation</t>
-  </si>
-  <si>
-    <t>La centralité des intermédiaires d'emploi pour les emplois journaliers des basses castes</t>
-  </si>
-  <si>
-    <t>This paper draws on a survey conducted in rural Tamil Nadu in southern India to examine the meanings and implications of recent developments in debt relationships for social relations. While some changes and differentiation practices were observed, we also found persisting social hierarchies based on creditor-debtor relationships. In a context where patron-client mentalities shape redistributive social protection measures, and rules of reciprocity are limited to inter-caste relationships, bonds of hierarchical debt continue to play a key role in terms of protection.</t>
-  </si>
-  <si>
-    <t>Abstract_eng</t>
-  </si>
-  <si>
-    <t>Using original data on 1,635 individuals from rural South India, we analyse the correlation between indebtedness, locus of control and social identity (gender and caste) among borrowers. While locus of control is correlated with debt negotiation, we observe that the relationship is strongest for non-Dalit men (middle and upper castes). This result suggests that a more internal locus of control is an additional asset in negotiation for individuals who already enjoy a favourable social position.</t>
-  </si>
-  <si>
-    <t>This chapter analyses income inequality and mobility in ten villages in Tamil Nadu, India, between 2010 and 2020–2021, based on the NEEMSIS longitudinal micro-survey conducted by an interdisciplinary team. Five main findings emerge from the analyses: (i) income inequality has increased; (ii) regular non-agricultural income increases inequality, while casual income reduces it; (iii) Dalits are under-represented in the upper income quintiles; (iv) the share of inequality between castes is declining, while that between jatis remains stable for middle castes but is decreasing for high castes; (v) most households experience income mobility (upward or downward), but the latter is highly volatile.</t>
-  </si>
-  <si>
-    <t>This PhD explores the characteristics of the labor market in rural areas of South India over the last decade through the use of interpersonal networks. It is divided into five chapters and takes a multidisciplinary approach that draws on institutional economics, economic sociology and economic anthropology. It is based on a mixed methodology that combines quantitative and qualitative data. The former consists of longitudinal RUME-NEEMSIS data (2010-2021) collected from 600 households in ten villages. The latter is the result of several months of ethnographic fieldwork conducted using the quantified narratives method. The first chapter presents the methodological and conceptual framework, reviewing ten years of transformations in Tamil villages. The second chapter examines social capital endowments using the network modules of the NEEMSIS surveys, based on factorial analysis and network analysis. The third chapter tests the hypothesis of labor market segmentation using an expanded Mincer equation with network variables and a Finite Mixture Model (FMM). The fourth chapter demonstrates the omnipresence and diversity of intermediaries in regulating the daily work of the lower castes, based on three networks providing access to employment. The ideal-typical figure of the maistry is eroding, but that of the broker is taking root in the face of social segregation. The last chapter examines these intermediaries from the perspective of caste-related power relations that are reproduced in the labor process. Are they agents of coercion or protection for workers?</t>
-  </si>
-  <si>
-    <t>The multiple economic, political and social changes that occurred in India since the liberalizationprocess initiated in the 1980’s altered the organization and the structure of labour. These structuralchanges reshaped migratory practices depending on workforce demand. This dissertation examineshow the labour market structuration in India has contributed to changing internal migration flows andhow migratory practices evolved. Therefore, to identify the links between labour markets andmigration flows, this study combines macro and micro levels of analysis. The dissertation is organizedas follows. The literature review synthetizes migration theories. Then, in the first part, we propose amacroeconomic analysis of the links between labour market and migration. Through a labour markettypology elaborated for different regions of India, we spatialize migration flows. In the second part,with a microeconomic focus and a mixed approach that combines both qualitative results from ourfieldwork conducted between 2010 and 2014 and quantitative results, we study the evolutions oflabour migration in rural Tamil Nadu. We identify migration patterns and establish the existence of adiversity of migratory practices.</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Who?</t>
-  </si>
-  <si>
-    <t>C. J. Nordman, I. Guérin</t>
-  </si>
-  <si>
-    <t>Stability over time of the locus of control</t>
-  </si>
-  <si>
-    <t>Dans un short paper, regarder la stabilité dans le temps du locus de contrôle. Faire des régressions pour regarder les facteurs explicatifs du changement. Eventuellement faire une PSM avec effets du COVID.</t>
-  </si>
-  <si>
-    <t>Household indebtedness Landscape: Evolution between 2010 and 2025</t>
-  </si>
-  <si>
-    <t>Faire une ACM à l'échelle des prêts pour regarder la transformation des pratiques d'endettement depuis 2010. Essayer d'en tirer des variables à l'échelle des ménages pour faire de l'économétrie.</t>
-  </si>
-  <si>
-    <t>I.Guérin, S. Michiels</t>
-  </si>
-  <si>
-    <t>Regarder l'endettement pour l'éducation, son rapport avec le DSR.</t>
-  </si>
-  <si>
-    <t>How climate change and financialisation are transforming families livelihood? Understanding how populations perceive, interpret and prioritise risks.</t>
-  </si>
-  <si>
-    <t>Climate change</t>
-  </si>
-  <si>
-    <t>Social protection</t>
-  </si>
-  <si>
-    <t>C. J. Nordman, I. Guérin, G. Venkatasubramanian</t>
-  </si>
-  <si>
-    <t>Inequalities in access to government programmes</t>
-  </si>
-  <si>
-    <t>M. Di Santolo, I. Guérin</t>
-  </si>
-  <si>
-    <t>Political work</t>
-  </si>
-  <si>
-    <t>How exposure, perceptions, and representations of climate change interact with social inequalities to reconfigure informal protection strategies (debt, marriages, etc.)?</t>
-  </si>
-  <si>
-    <t>How private insurance mitigate or reinforce inequalities?</t>
-  </si>
-  <si>
-    <t>How families assemble these different resources – public, private, informal – to cope with climate change?</t>
-  </si>
-  <si>
-    <t>Projet MSCA-PF: papier de contextualisation sur l'exposition aux chocs avec NEEMSIS-3</t>
-  </si>
-  <si>
-    <t>Projet MSCA-PF</t>
-  </si>
-  <si>
-    <t>Projet MSCA-PF: to highlight the effects of these arrangements on the reproduction of social inequalities.</t>
-  </si>
-  <si>
-    <t>NEEMSIS-2</t>
-  </si>
-  <si>
-    <t>NEEMSIS-3</t>
-  </si>
-  <si>
-    <t>NEEMIS-1</t>
-  </si>
-  <si>
-    <t>RUME</t>
-  </si>
-  <si>
-    <t>2016-2017</t>
-  </si>
-  <si>
-    <t>2020-2021</t>
-  </si>
-  <si>
-    <t>2025-2026</t>
-  </si>
-  <si>
-    <t>Christophe Jalil Nordman</t>
-  </si>
-  <si>
-    <t>G. Venkatasubramanian</t>
-  </si>
-  <si>
-    <t>Isabelle Guérin</t>
-  </si>
-  <si>
-    <t>Sébastien Michiels</t>
-  </si>
-  <si>
-    <t>Cécile Mouchel</t>
-  </si>
-  <si>
-    <t>Arnaud Natal</t>
-  </si>
-  <si>
-    <t>Mary Di Santolo</t>
-  </si>
-  <si>
-    <t>Anne Hilger</t>
-  </si>
-  <si>
-    <t>Antoni Raj</t>
-  </si>
-  <si>
-    <t>Féodor Desplanques</t>
-  </si>
-  <si>
-    <t>Youna Lanos</t>
-  </si>
-  <si>
-    <t>Santosh Kumar</t>
-  </si>
-  <si>
-    <t>Marc Roesch</t>
+    <t>J Nordman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observer les mouvements migratoires sur 15 ans, en utilisant le tracking migrants et ménages, les mettre en relation avec la dynamique des réseaux et la cognition </t>
+  </si>
+  <si>
+    <t>Migration, Networks &amp; Cognition/education</t>
+  </si>
+  <si>
+    <t>Observation la dynamique de la satisfaction dans l'emploi, en mettant en regard les conditions de travail, les aspects discriminatoires et les mobilités</t>
+  </si>
+  <si>
+    <t>Dynamics of social networks and labour market transitions</t>
+  </si>
+  <si>
+    <t>Satisfaction, Working Conditions and Labour Market Outcomes</t>
+  </si>
+  <si>
+    <t>Observer la dynamique des réseaux et la mettre en relation avec les changements occupationnels sur longue période</t>
+  </si>
+  <si>
+    <t>Sébastien ?</t>
+  </si>
+  <si>
+    <t>Féodor ?</t>
+  </si>
+  <si>
+    <t>A Change is Gonna Come: Universality, Stabilityn and Shocks in Personality Traits in Rural India</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1196,6 +1214,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2324,7 +2345,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C9084F6F-75A0-4580-9D77-310C82B51C5E}" name="Tableau4" displayName="Tableau4" ref="A1:AB47" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43">
   <autoFilter ref="A1:AB47" xr:uid="{C9084F6F-75A0-4580-9D77-310C82B51C5E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB47">
-    <sortCondition ref="N1:N47"/>
+    <sortCondition ref="A1:A47"/>
   </sortState>
   <tableColumns count="28">
     <tableColumn id="2" xr3:uid="{4A547CEB-3E64-421A-98F0-CCF9117010A0}" name="Title" dataDxfId="42"/>
@@ -2668,24 +2689,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79561114-983C-496A-ABC9-BA72101AF9C5}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="49.21875" style="15" customWidth="1"/>
     <col min="2" max="2" width="13.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.88671875" style="7"/>
-    <col min="11" max="11" width="33.109375" style="11" customWidth="1"/>
+    <col min="4" max="7" width="12.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.77734375" style="7"/>
+    <col min="11" max="11" width="33.21875" style="11" customWidth="1"/>
     <col min="12" max="12" width="21.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.77734375" style="16" customWidth="1"/>
-    <col min="14" max="16384" width="10.88671875" style="2"/>
+    <col min="14" max="16384" width="10.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -2693,459 +2714,564 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>225</v>
+        <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>232</v>
+        <v>10</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>286</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>224</v>
+        <v>13</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="9" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>233</v>
+        <v>22</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>230</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="17"/>
       <c r="I3" s="9" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>234</v>
+        <v>28</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>277</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>301</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>230</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>302</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>68</v>
-      </c>
       <c r="F6" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>230</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="I7" s="7" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>293</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>285</v>
+        <v>43</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>287</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>285</v>
+        <v>43</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>299</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>288</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>229</v>
+        <v>50</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>289</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>285</v>
+        <v>43</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>290</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>68</v>
-      </c>
       <c r="I10" s="7" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>227</v>
+        <v>54</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>285</v>
+        <v>43</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>292</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>294</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>295</v>
+        <v>36</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>296</v>
+        <v>35</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>304</v>
+        <v>58</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>285</v>
+        <v>43</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>297</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>298</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>68</v>
-      </c>
       <c r="F12" s="11" t="s">
-        <v>296</v>
+        <v>35</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>285</v>
+        <v>43</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>303</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>68</v>
-      </c>
       <c r="F13" s="11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>306</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>43</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>297</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -3190,20 +3316,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="61.77734375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="8" customWidth="1"/>
     <col min="3" max="3" width="25.77734375" style="18" customWidth="1"/>
     <col min="4" max="4" width="12.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="9" customWidth="1"/>
     <col min="7" max="11" width="12.21875" style="10" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="7.21875" style="9" customWidth="1"/>
     <col min="13" max="13" width="10" style="8" customWidth="1"/>
     <col min="14" max="14" width="14.21875" style="9" customWidth="1"/>
     <col min="15" max="15" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
@@ -3211,9 +3337,9 @@
     <col min="17" max="17" width="25.44140625" style="2" customWidth="1"/>
     <col min="18" max="18" width="10.5546875" style="8" customWidth="1"/>
     <col min="19" max="19" width="20.44140625" style="8" customWidth="1"/>
-    <col min="20" max="20" width="10.77734375" style="29" customWidth="1"/>
-    <col min="21" max="21" width="9" style="28" customWidth="1"/>
-    <col min="22" max="22" width="12" style="28" customWidth="1"/>
+    <col min="20" max="20" width="10.77734375" style="30" customWidth="1"/>
+    <col min="21" max="21" width="9" style="29" customWidth="1"/>
+    <col min="22" max="22" width="12" style="29" customWidth="1"/>
     <col min="23" max="23" width="11.77734375" style="2" customWidth="1"/>
     <col min="24" max="24" width="11.44140625" style="2" customWidth="1"/>
     <col min="25" max="25" width="11.77734375" style="2" customWidth="1"/>
@@ -3227,305 +3353,335 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>236</v>
+        <v>66</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>237</v>
+        <v>67</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>239</v>
+        <v>68</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="Z1" s="13" t="s">
-        <v>280</v>
+        <v>81</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>221</v>
+        <v>82</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>222</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>72</v>
+        <v>335</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>242</v>
+        <v>105</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="G2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>223</v>
-      </c>
       <c r="M2" s="8" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" s="9"/>
+        <v>89</v>
+      </c>
+      <c r="O2" s="9">
+        <v>2025</v>
+      </c>
       <c r="P2" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q2" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="S2" s="23">
-        <v>0</v>
-      </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="T2" s="23">
+        <v>0</v>
+      </c>
+      <c r="U2" s="23">
+        <v>1</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="W2" s="21">
+        <v>2025</v>
+      </c>
       <c r="X2" s="21"/>
       <c r="Y2" s="21"/>
-      <c r="Z2" s="22"/>
+      <c r="Z2" s="22" t="s">
+        <v>221</v>
+      </c>
       <c r="AA2" s="21"/>
       <c r="AB2" s="21"/>
     </row>
-    <row r="3" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>240</v>
+        <v>86</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="9"/>
+        <v>89</v>
+      </c>
+      <c r="O3" s="9">
+        <v>2024</v>
+      </c>
       <c r="P3" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q3" s="8"/>
-      <c r="S3" s="23">
+        <v>90</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="S3" s="20">
         <v>1</v>
       </c>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
+      <c r="T3" s="20">
+        <v>0</v>
+      </c>
+      <c r="U3" s="20">
+        <v>1</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="W3" s="21">
+        <v>2024</v>
+      </c>
       <c r="X3" s="21"/>
       <c r="Y3" s="21"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
+      <c r="Z3" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA3" s="21">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>240</v>
+        <v>86</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" s="9"/>
+        <v>89</v>
+      </c>
+      <c r="O4" s="9">
+        <v>2024</v>
+      </c>
       <c r="P4" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q4" s="8"/>
-      <c r="S4" s="23">
+        <v>241</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="S4" s="23"/>
+      <c r="T4" s="20">
         <v>1</v>
       </c>
-      <c r="T4" s="20"/>
       <c r="U4" s="20"/>
       <c r="V4" s="21"/>
       <c r="W4" s="21"/>
       <c r="X4" s="21"/>
       <c r="Y4" s="21"/>
-      <c r="Z4" s="27"/>
+      <c r="Z4" s="22"/>
       <c r="AA4" s="21"/>
       <c r="AB4" s="21"/>
     </row>
-    <row r="5" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>243</v>
+        <v>86</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="O5" s="9"/>
       <c r="P5" s="10" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="8"/>
       <c r="S5" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
@@ -3533,187 +3689,181 @@
       <c r="W5" s="21"/>
       <c r="X5" s="21"/>
       <c r="Y5" s="21"/>
-      <c r="Z5" s="27"/>
+      <c r="Z5" s="28"/>
       <c r="AA5" s="21"/>
       <c r="AB5" s="21"/>
     </row>
-    <row r="6" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>242</v>
+        <v>113</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="O6" s="9">
-        <v>2026</v>
+        <v>2018</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="S6" s="23">
-        <v>0</v>
-      </c>
-      <c r="T6" s="23">
-        <v>0</v>
-      </c>
-      <c r="U6" s="23">
-        <v>0</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20">
+        <v>1</v>
+      </c>
+      <c r="U6" s="20"/>
       <c r="V6" s="21"/>
       <c r="W6" s="21"/>
       <c r="X6" s="21"/>
       <c r="Y6" s="21"/>
       <c r="Z6" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
+        <v>198</v>
+      </c>
+      <c r="AA6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>60</v>
+        <v>247</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>242</v>
+        <v>86</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>93</v>
+        <v>17</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="9"/>
+        <v>89</v>
+      </c>
+      <c r="O7" s="9">
+        <v>2019</v>
+      </c>
       <c r="P7" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q7" s="8"/>
-      <c r="S7" s="23">
+        <v>241</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="S7" s="23"/>
+      <c r="T7" s="20">
         <v>1</v>
       </c>
-      <c r="T7" s="23">
-        <v>0</v>
-      </c>
-      <c r="U7" s="23">
-        <v>1</v>
-      </c>
-      <c r="V7" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="W7" s="21">
-        <v>2025</v>
-      </c>
+      <c r="U7" s="20"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
-      <c r="Z7" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="AA7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="21">
-        <v>0</v>
-      </c>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
     </row>
     <row r="8" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>242</v>
+        <v>86</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>240</v>
+        <v>86</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>223</v>
-      </c>
       <c r="M8" s="8" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="9"/>
+        <v>89</v>
+      </c>
+      <c r="O8" s="9">
+        <v>2024</v>
+      </c>
       <c r="P8" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q8" s="8"/>
-      <c r="S8" s="23">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="S8" s="20">
+        <v>0</v>
+      </c>
+      <c r="T8" s="20">
         <v>1</v>
       </c>
-      <c r="T8" s="23">
-        <v>0</v>
-      </c>
-      <c r="U8" s="23">
+      <c r="U8" s="20">
         <v>0</v>
       </c>
       <c r="V8" s="21"/>
@@ -3721,60 +3871,65 @@
       <c r="X8" s="21"/>
       <c r="Y8" s="21"/>
       <c r="Z8" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
+        <v>182</v>
+      </c>
+      <c r="AA8" s="21">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>242</v>
+        <v>86</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>240</v>
+        <v>86</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>244</v>
+        <v>86</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="9">
+        <v>2013</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q9" s="8"/>
-      <c r="S9" s="23">
-        <v>0</v>
-      </c>
-      <c r="T9" s="23">
-        <v>0</v>
-      </c>
-      <c r="U9" s="23">
+      <c r="R9" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" s="20">
+        <v>0</v>
+      </c>
+      <c r="T9" s="20">
+        <v>0</v>
+      </c>
+      <c r="U9" s="20">
         <v>0</v>
       </c>
       <c r="V9" s="21"/>
@@ -3782,111 +3937,125 @@
       <c r="X9" s="21"/>
       <c r="Y9" s="21"/>
       <c r="Z9" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
+        <v>98</v>
+      </c>
+      <c r="AA9" s="21">
+        <v>120</v>
+      </c>
+      <c r="AB9" s="21">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>69</v>
+        <v>212</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>242</v>
+        <v>105</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>103</v>
+        <v>49</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" s="9"/>
+        <v>114</v>
+      </c>
+      <c r="O10" s="9">
+        <v>2023</v>
+      </c>
       <c r="P10" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q10" s="8"/>
-      <c r="S10" s="23">
+        <v>115</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20">
         <v>1</v>
       </c>
-      <c r="T10" s="23">
-        <v>0</v>
-      </c>
-      <c r="U10" s="23">
-        <v>0</v>
-      </c>
+      <c r="U10" s="20"/>
       <c r="V10" s="21"/>
       <c r="W10" s="21"/>
       <c r="X10" s="21"/>
       <c r="Y10" s="21"/>
       <c r="Z10" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-    </row>
-    <row r="11" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="AA10" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>265</v>
+        <v>85</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="O11" s="9">
         <v>2012</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="S11" s="20">
         <v>0</v>
@@ -3902,7 +4071,7 @@
       <c r="X11" s="21"/>
       <c r="Y11" s="21"/>
       <c r="Z11" s="22" t="s">
-        <v>279</v>
+        <v>93</v>
       </c>
       <c r="AA11" s="21">
         <v>7</v>
@@ -3911,117 +4080,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>238</v>
+        <v>106</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>14</v>
+        <v>191</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="O12" s="9">
-        <v>2013</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="O12" s="9"/>
       <c r="P12" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="R12" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="S12" s="20">
-        <v>0</v>
-      </c>
-      <c r="T12" s="20">
-        <v>0</v>
-      </c>
-      <c r="U12" s="20">
-        <v>0</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="S12" s="23">
+        <v>1</v>
+      </c>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
       <c r="V12" s="21"/>
       <c r="W12" s="21"/>
       <c r="X12" s="21"/>
       <c r="Y12" s="21"/>
-      <c r="Z12" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA12" s="21">
-        <v>120</v>
-      </c>
-      <c r="AB12" s="21">
-        <v>99</v>
-      </c>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
     </row>
     <row r="13" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>93</v>
+        <v>16</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="O13" s="9">
-        <v>2015</v>
+        <v>2025</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>116</v>
+        <v>201</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="S13" s="20">
         <v>0</v>
@@ -4030,446 +4197,379 @@
         <v>0</v>
       </c>
       <c r="U13" s="20">
-        <v>0</v>
-      </c>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="W13" s="21">
+        <v>2024</v>
+      </c>
       <c r="X13" s="21"/>
       <c r="Y13" s="21"/>
       <c r="Z13" s="22" t="s">
-        <v>268</v>
+        <v>203</v>
       </c>
       <c r="AA13" s="21">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="21">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>238</v>
+        <v>106</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>39</v>
+        <v>19</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="O14" s="9">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="S14" s="20">
-        <v>0</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="S14" s="20"/>
       <c r="T14" s="20">
-        <v>0</v>
-      </c>
-      <c r="U14" s="20">
         <v>1</v>
       </c>
-      <c r="V14" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="W14" s="21">
-        <v>2017</v>
-      </c>
+      <c r="U14" s="20"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
       <c r="X14" s="21"/>
       <c r="Y14" s="21"/>
       <c r="Z14" s="22" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="AA14" s="21">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="21">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>238</v>
+        <v>106</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="O15" s="9">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="R15" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="S15" s="20">
-        <v>0</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="S15" s="23"/>
       <c r="T15" s="20">
         <v>0</v>
       </c>
-      <c r="U15" s="20">
-        <v>0</v>
-      </c>
+      <c r="U15" s="20"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
       <c r="X15" s="21"/>
       <c r="Y15" s="21"/>
       <c r="Z15" s="22" t="s">
-        <v>269</v>
+        <v>185</v>
       </c>
       <c r="AA15" s="21">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="21">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>238</v>
+        <v>105</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>244</v>
+        <v>86</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="O16" s="9">
-        <v>2021</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="O16" s="9"/>
       <c r="P16" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R16" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="S16" s="20">
-        <v>1</v>
-      </c>
-      <c r="T16" s="20">
-        <v>0</v>
-      </c>
-      <c r="U16" s="20">
-        <v>1</v>
-      </c>
-      <c r="V16" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="W16" s="21">
-        <v>2019</v>
-      </c>
-      <c r="X16" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="Y16" s="21">
-        <v>2020</v>
-      </c>
-      <c r="Z16" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA16" s="21">
-        <v>42</v>
-      </c>
-      <c r="AB16" s="21">
-        <v>35</v>
-      </c>
+      <c r="Q16" s="8"/>
+      <c r="S16" s="23">
+        <v>0</v>
+      </c>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
     </row>
     <row r="17" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="C17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="L17" s="9" t="s">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="O17" s="9">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>147</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="R17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="S17" s="20">
-        <v>0</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="S17" s="23"/>
       <c r="T17" s="20">
-        <v>0</v>
-      </c>
-      <c r="U17" s="20">
         <v>1</v>
       </c>
-      <c r="V17" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="W17" s="21">
-        <v>2021</v>
-      </c>
+      <c r="U17" s="20"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
       <c r="X17" s="21"/>
       <c r="Y17" s="21"/>
-      <c r="Z17" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA17" s="21">
-        <v>4</v>
-      </c>
-      <c r="AB17" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+    </row>
+    <row r="18" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>53</v>
+        <v>253</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>238</v>
+        <v>105</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>238</v>
+        <v>106</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="O18" s="9">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>148</v>
+        <v>241</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R18" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="S18" s="20">
-        <v>0</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="S18" s="23"/>
       <c r="T18" s="20">
-        <v>0</v>
-      </c>
-      <c r="U18" s="20">
         <v>1</v>
       </c>
-      <c r="V18" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="W18" s="21">
-        <v>2020</v>
-      </c>
+      <c r="U18" s="20"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
       <c r="X18" s="21"/>
       <c r="Y18" s="21"/>
-      <c r="Z18" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA18" s="21">
-        <v>4</v>
-      </c>
-      <c r="AB18" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+    </row>
+    <row r="19" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>266</v>
+        <v>103</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>242</v>
+        <v>105</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="N19" s="9" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="O19" s="9">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="R19" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="S19" s="20">
-        <v>0</v>
-      </c>
-      <c r="T19" s="20">
-        <v>0</v>
-      </c>
-      <c r="U19" s="20">
+        <v>110</v>
+      </c>
+      <c r="S19" s="23">
+        <v>0</v>
+      </c>
+      <c r="T19" s="23">
+        <v>0</v>
+      </c>
+      <c r="U19" s="23">
         <v>0</v>
       </c>
       <c r="V19" s="21"/>
@@ -4477,60 +4577,53 @@
       <c r="X19" s="21"/>
       <c r="Y19" s="21"/>
       <c r="Z19" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+    </row>
+    <row r="20" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="O20" s="9">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="S20" s="20">
         <v>0</v>
@@ -4542,318 +4635,246 @@
         <v>1</v>
       </c>
       <c r="V20" s="21" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="W20" s="21">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="X20" s="21"/>
       <c r="Y20" s="21"/>
       <c r="Z20" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA20" s="21">
+        <v>31</v>
+      </c>
+      <c r="AB20" s="21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="AA20" s="21">
+      <c r="B21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AB20" s="21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>97</v>
-      </c>
       <c r="L21" s="9" t="s">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="O21" s="9">
-        <v>2023</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="O21" s="9"/>
       <c r="P21" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q21" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="R21" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="S21" s="20">
-        <v>0</v>
-      </c>
-      <c r="T21" s="20">
-        <v>1</v>
-      </c>
-      <c r="U21" s="20">
-        <v>1</v>
-      </c>
-      <c r="V21" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="W21" s="9">
-        <v>2023</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="Q21" s="8"/>
+      <c r="S21" s="23">
+        <v>0</v>
+      </c>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
-      <c r="Z21" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA21" s="21">
-        <v>4</v>
-      </c>
-      <c r="AB21" s="21">
-        <v>2</v>
-      </c>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
     </row>
     <row r="22" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
-        <v>36</v>
+        <v>243</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="O22" s="9">
-        <v>2024</v>
+        <v>2017</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>147</v>
+        <v>241</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="R22" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="S22" s="20">
+        <v>245</v>
+      </c>
+      <c r="S22" s="23"/>
+      <c r="T22" s="20">
         <v>1</v>
       </c>
-      <c r="T22" s="20">
-        <v>0</v>
-      </c>
-      <c r="U22" s="20">
-        <v>1</v>
-      </c>
-      <c r="V22" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="W22" s="9">
-        <v>2024</v>
-      </c>
+      <c r="U22" s="20"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
-      <c r="Z22" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="AA22" s="21">
-        <v>6</v>
-      </c>
-      <c r="AB22" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="C23" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>223</v>
-      </c>
       <c r="M23" s="8" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="O23" s="9">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>147</v>
+        <v>241</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="R23" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="S23" s="20">
-        <v>0</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="S23" s="23"/>
       <c r="T23" s="20">
         <v>1</v>
       </c>
-      <c r="U23" s="20">
-        <v>0</v>
-      </c>
+      <c r="U23" s="20"/>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
-      <c r="Z23" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA23" s="21">
-        <v>2</v>
-      </c>
-      <c r="AB23" s="21">
-        <v>2</v>
-      </c>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
     </row>
     <row r="24" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>242</v>
+        <v>113</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="O24" s="9">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="R24" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="S24" s="20">
+        <v>209</v>
+      </c>
+      <c r="S24" s="23">
         <v>1</v>
       </c>
       <c r="T24" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" s="20">
-        <v>1</v>
-      </c>
-      <c r="V24" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="W24" s="9">
-        <v>2024</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
-      <c r="Z24" s="22" t="s">
-        <v>262</v>
-      </c>
+      <c r="Z24" s="22"/>
       <c r="AA24" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="21">
         <v>0</v>
@@ -4861,52 +4882,55 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>238</v>
+        <v>105</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>238</v>
+        <v>106</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>95</v>
+        <v>18</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>223</v>
+        <v>32</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="O25" s="9">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="R25" s="19" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="S25" s="20">
         <v>0</v>
@@ -4915,18 +4939,14 @@
         <v>0</v>
       </c>
       <c r="U25" s="20">
-        <v>1</v>
-      </c>
-      <c r="V25" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="W25" s="9">
-        <v>2024</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
       <c r="Z25" s="22" t="s">
-        <v>263</v>
+        <v>157</v>
       </c>
       <c r="AA25" s="21">
         <v>0</v>
@@ -4937,199 +4957,201 @@
     </row>
     <row r="26" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>238</v>
+        <v>106</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="J26" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>223</v>
-      </c>
       <c r="M26" s="8" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="O26" s="9">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="S26" s="23">
+        <v>145</v>
+      </c>
+      <c r="R26" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="S26" s="20">
+        <v>0</v>
+      </c>
+      <c r="T26" s="20">
+        <v>0</v>
+      </c>
+      <c r="U26" s="20">
         <v>1</v>
       </c>
-      <c r="T26" s="23">
-        <v>1</v>
-      </c>
-      <c r="U26" s="23">
-        <v>0</v>
-      </c>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
+      <c r="V26" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="W26" s="9">
+        <v>2021</v>
+      </c>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="22" t="s">
-        <v>264</v>
+        <v>147</v>
       </c>
       <c r="AA26" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB26" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>243</v>
+        <v>105</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="O27" s="9">
-        <v>2026</v>
+        <v>2016</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="S27" s="23">
-        <v>1</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="R27" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="S27" s="20"/>
       <c r="T27" s="20">
         <v>1</v>
       </c>
-      <c r="U27" s="20">
-        <v>0</v>
-      </c>
+      <c r="U27" s="20"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
-      <c r="Z27" s="22"/>
+      <c r="Z27" s="22" t="s">
+        <v>162</v>
+      </c>
       <c r="AA27" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>15</v>
+      <c r="K28" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="O28" s="9">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="R28" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="S28" s="25">
-        <v>0</v>
-      </c>
-      <c r="T28" s="26">
-        <v>0</v>
-      </c>
-      <c r="U28" s="20">
+        <v>206</v>
+      </c>
+      <c r="S28" s="24">
+        <v>1</v>
+      </c>
+      <c r="T28" s="25">
+        <v>1</v>
+      </c>
+      <c r="U28" s="23">
         <v>0</v>
       </c>
       <c r="V28" s="9"/>
@@ -5137,60 +5159,60 @@
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
       <c r="Z28" s="22" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="AA28" s="21">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="AB28" s="21">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>134</v>
+        <v>267</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>242</v>
+        <v>86</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>240</v>
+        <v>86</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>244</v>
+        <v>86</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="O29" s="9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>171</v>
+        <v>260</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="S29" s="24"/>
-      <c r="T29" s="26">
+        <v>264</v>
+      </c>
+      <c r="R29" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="S29" s="26"/>
+      <c r="T29" s="27">
         <v>1</v>
       </c>
       <c r="U29" s="20"/>
@@ -5199,107 +5221,137 @@
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="22"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
+      <c r="AA29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>238</v>
+        <v>105</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>238</v>
+        <v>106</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>39</v>
+        <v>16</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="L30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O30" s="9">
+        <v>2024</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="R30" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="S30" s="26">
+        <v>1</v>
+      </c>
+      <c r="T30" s="27">
+        <v>0</v>
+      </c>
+      <c r="U30" s="20">
+        <v>1</v>
+      </c>
+      <c r="V30" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="M30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="O30" s="9">
-        <v>2017</v>
-      </c>
-      <c r="P30" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q30" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="S30" s="24"/>
-      <c r="T30" s="26">
-        <v>1</v>
-      </c>
-      <c r="U30" s="20"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
+      <c r="W30" s="9">
+        <v>2024</v>
+      </c>
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
+      <c r="Z30" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA30" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="21">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="O31" s="9">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="S31" s="24"/>
-      <c r="T31" s="26">
+      <c r="T31" s="27">
         <v>1</v>
       </c>
       <c r="U31" s="20"/>
@@ -5307,111 +5359,126 @@
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
-      <c r="Z31" s="22"/>
+      <c r="Z31" s="22" t="s">
+        <v>117</v>
+      </c>
       <c r="AA31" s="21"/>
       <c r="AB31" s="21"/>
     </row>
-    <row r="32" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>238</v>
+        <v>105</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="O32" s="9">
-        <v>2019</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O32" s="9"/>
       <c r="P32" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q32" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="S32" s="24"/>
-      <c r="T32" s="26">
+        <v>90</v>
+      </c>
+      <c r="Q32" s="8"/>
+      <c r="S32" s="24">
         <v>1</v>
       </c>
-      <c r="U32" s="20"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
+      <c r="T32" s="25">
+        <v>0</v>
+      </c>
+      <c r="U32" s="23">
+        <v>1</v>
+      </c>
+      <c r="V32" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="W32" s="9">
+        <v>2025</v>
+      </c>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-    </row>
-    <row r="33" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Z32" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA32" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>238</v>
+        <v>105</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="O33" s="9">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="S33" s="24"/>
-      <c r="T33" s="26">
+      <c r="T33" s="27">
         <v>1</v>
       </c>
       <c r="U33" s="20"/>
@@ -5423,107 +5490,124 @@
       <c r="AA33" s="21"/>
       <c r="AB33" s="21"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>68</v>
+        <v>16</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="O34" s="9">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="S34" s="24"/>
-      <c r="T34" s="26">
+        <v>122</v>
+      </c>
+      <c r="R34" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="S34" s="26">
+        <v>0</v>
+      </c>
+      <c r="T34" s="27">
+        <v>0</v>
+      </c>
+      <c r="U34" s="20">
         <v>1</v>
       </c>
-      <c r="U34" s="20"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
+      <c r="V34" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="W34" s="9">
+        <v>2020</v>
+      </c>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="21"/>
-    </row>
-    <row r="35" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Z34" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA34" s="21">
+        <v>18</v>
+      </c>
+      <c r="AB34" s="21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>188</v>
+        <v>246</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>242</v>
+        <v>86</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="O35" s="9">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="S35" s="24"/>
-      <c r="T35" s="26">
+      <c r="T35" s="27">
         <v>1</v>
       </c>
       <c r="U35" s="20"/>
@@ -5537,278 +5621,324 @@
     </row>
     <row r="36" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>242</v>
+        <v>105</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="L36" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>223</v>
-      </c>
       <c r="M36" s="8" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="O36" s="9">
-        <v>2017</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O36" s="9"/>
       <c r="P36" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q36" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="S36" s="24"/>
-      <c r="T36" s="26">
+        <v>90</v>
+      </c>
+      <c r="Q36" s="8"/>
+      <c r="S36" s="24">
         <v>1</v>
       </c>
-      <c r="U36" s="20"/>
+      <c r="T36" s="25">
+        <v>0</v>
+      </c>
+      <c r="U36" s="23">
+        <v>0</v>
+      </c>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
-      <c r="Z36" s="22"/>
+      <c r="Z36" s="22" t="s">
+        <v>233</v>
+      </c>
       <c r="AA36" s="21"/>
       <c r="AB36" s="21"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>238</v>
+        <v>106</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>39</v>
+        <v>217</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="O37" s="9">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="S37" s="24"/>
-      <c r="T37" s="26">
+        <v>218</v>
+      </c>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="S37" s="26">
         <v>1</v>
       </c>
-      <c r="U37" s="20"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
+      <c r="T37" s="27">
+        <v>0</v>
+      </c>
+      <c r="U37" s="20">
+        <v>1</v>
+      </c>
+      <c r="V37" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="W37" s="9">
+        <v>2020</v>
+      </c>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="21"/>
+      <c r="Z37" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA37" s="21">
+        <v>13</v>
+      </c>
+      <c r="AB37" s="21">
+        <v>4</v>
+      </c>
     </row>
     <row r="38" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
-        <v>161</v>
+        <v>133</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>238</v>
+        <v>106</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="O38" s="9">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="S38" s="24"/>
-      <c r="T38" s="26">
+        <v>136</v>
+      </c>
+      <c r="R38" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="S38" s="26">
         <v>1</v>
       </c>
-      <c r="U38" s="20"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="22"/>
+      <c r="T38" s="27">
+        <v>0</v>
+      </c>
+      <c r="U38" s="20">
+        <v>1</v>
+      </c>
+      <c r="V38" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="W38" s="9">
+        <v>2019</v>
+      </c>
+      <c r="X38" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y38" s="9">
+        <v>2020</v>
+      </c>
+      <c r="Z38" s="22" t="s">
+        <v>140</v>
+      </c>
       <c r="AA38" s="21">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AB38" s="21">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="O39" s="9">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="R39" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="S39" s="25"/>
-      <c r="T39" s="26">
-        <v>1</v>
-      </c>
-      <c r="U39" s="20"/>
+        <v>229</v>
+      </c>
+      <c r="S39" s="26">
+        <v>0</v>
+      </c>
+      <c r="T39" s="27">
+        <v>0</v>
+      </c>
+      <c r="U39" s="20">
+        <v>0</v>
+      </c>
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
-      <c r="Z39" s="22"/>
+      <c r="Z39" s="22" t="s">
+        <v>230</v>
+      </c>
       <c r="AA39" s="21">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="AB39" s="21">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
-        <v>167</v>
+        <v>256</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="G40" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L40" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L40" s="9" t="s">
-        <v>223</v>
-      </c>
       <c r="M40" s="8" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="O40" s="9">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="R40" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="S40" s="25"/>
-      <c r="T40" s="26">
+        <v>257</v>
+      </c>
+      <c r="S40" s="24"/>
+      <c r="T40" s="27">
         <v>1</v>
       </c>
       <c r="U40" s="20"/>
@@ -5817,119 +5947,120 @@
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="22"/>
-      <c r="AA40" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="21">
-        <v>0</v>
-      </c>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
     </row>
     <row r="41" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>243</v>
+        <v>86</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>240</v>
+        <v>86</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>244</v>
+        <v>86</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="O41" s="9">
-        <v>2025</v>
+        <v>2015</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="S41" s="24"/>
-      <c r="T41" s="26">
-        <v>1</v>
-      </c>
-      <c r="U41" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="R41" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="S41" s="26">
+        <v>0</v>
+      </c>
+      <c r="T41" s="27">
+        <v>0</v>
+      </c>
+      <c r="U41" s="20">
+        <v>0</v>
+      </c>
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
       <c r="Z41" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="AA41" s="21"/>
-      <c r="AB41" s="21"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="AA41" s="21">
+        <v>64</v>
+      </c>
+      <c r="AB41" s="21">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>133</v>
+        <v>259</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>242</v>
+        <v>86</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>240</v>
+        <v>86</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="O42" s="9">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>144</v>
+        <v>260</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="R42" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="S42" s="25"/>
-      <c r="T42" s="26">
+        <v>261</v>
+      </c>
+      <c r="S42" s="24"/>
+      <c r="T42" s="27">
         <v>1</v>
       </c>
       <c r="U42" s="20"/>
@@ -5937,191 +6068,196 @@
       <c r="W42" s="9"/>
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
-      <c r="Z42" s="22" t="s">
-        <v>284</v>
-      </c>
+      <c r="Z42" s="22"/>
       <c r="AA42" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O43" s="9">
+        <v>2020</v>
+      </c>
+      <c r="P43" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="R43" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="S43" s="26">
+        <v>0</v>
+      </c>
+      <c r="T43" s="27">
+        <v>0</v>
+      </c>
+      <c r="U43" s="20">
         <v>1</v>
       </c>
-      <c r="AB42" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L43" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N43" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="O43" s="9">
-        <v>2021</v>
-      </c>
-      <c r="P43" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q43" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="S43" s="24"/>
-      <c r="T43" s="26">
-        <v>0</v>
-      </c>
-      <c r="U43" s="20"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
+      <c r="V43" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="W43" s="9">
+        <v>2020</v>
+      </c>
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
       <c r="Z43" s="22" t="s">
-        <v>252</v>
+        <v>153</v>
       </c>
       <c r="AA43" s="21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB43" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>243</v>
+        <v>105</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>93</v>
+        <v>223</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="O44" s="9">
-        <v>2024</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="O44" s="9"/>
       <c r="P44" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q44" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="R44" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="S44" s="25"/>
-      <c r="T44" s="26">
-        <v>1</v>
-      </c>
-      <c r="U44" s="20"/>
+        <v>90</v>
+      </c>
+      <c r="Q44" s="8"/>
+      <c r="S44" s="24">
+        <v>0</v>
+      </c>
+      <c r="T44" s="25">
+        <v>0</v>
+      </c>
+      <c r="U44" s="23">
+        <v>0</v>
+      </c>
       <c r="V44" s="9"/>
       <c r="W44" s="9"/>
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
       <c r="Z44" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="AA44" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
-        <v>152</v>
+        <v>262</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>129</v>
+        <v>263</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>243</v>
+        <v>86</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>240</v>
+        <v>86</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c r="G45" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L45" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L45" s="9" t="s">
-        <v>223</v>
-      </c>
       <c r="M45" s="8" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="O45" s="9">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="P45" s="10" t="s">
-        <v>144</v>
+        <v>260</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="R45" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="S45" s="25"/>
-      <c r="T45" s="26">
+        <v>265</v>
+      </c>
+      <c r="S45" s="26"/>
+      <c r="T45" s="27">
         <v>1</v>
       </c>
       <c r="U45" s="20"/>
@@ -6129,184 +6265,182 @@
       <c r="W45" s="9"/>
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
-      <c r="Z45" s="22" t="s">
-        <v>251</v>
-      </c>
+      <c r="Z45" s="22"/>
       <c r="AA45" s="21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB45" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>242</v>
+        <v>86</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>240</v>
+        <v>86</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>244</v>
+        <v>86</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H46" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="L46" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I46" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>223</v>
-      </c>
       <c r="M46" s="8" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="O46" s="9">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="R46" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="S46" s="25"/>
-      <c r="T46" s="26">
-        <v>1</v>
-      </c>
-      <c r="U46" s="20"/>
+        <v>131</v>
+      </c>
+      <c r="S46" s="26">
+        <v>0</v>
+      </c>
+      <c r="T46" s="27">
+        <v>0</v>
+      </c>
+      <c r="U46" s="20">
+        <v>0</v>
+      </c>
       <c r="V46" s="9"/>
       <c r="W46" s="9"/>
       <c r="X46" s="9"/>
       <c r="Y46" s="9"/>
       <c r="Z46" s="22" t="s">
-        <v>253</v>
+        <v>132</v>
       </c>
       <c r="AA46" s="9">
+        <v>77</v>
+      </c>
+      <c r="AB46" s="9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O47" s="9">
+        <v>2023</v>
+      </c>
+      <c r="P47" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="R47" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="S47" s="26">
+        <v>0</v>
+      </c>
+      <c r="T47" s="27">
         <v>1</v>
-      </c>
-      <c r="AB46" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A47" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="M47" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N47" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="O47" s="9">
-        <v>2020</v>
-      </c>
-      <c r="P47" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="S47" s="25">
-        <v>1</v>
-      </c>
-      <c r="T47" s="26">
-        <v>0</v>
       </c>
       <c r="U47" s="20">
         <v>1</v>
       </c>
       <c r="V47" s="9" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="W47" s="9">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
       <c r="Z47" s="22" t="s">
-        <v>270</v>
+        <v>172</v>
       </c>
       <c r="AA47" s="9">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AB47" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="R16" r:id="rId1" xr:uid="{C6AD3598-B809-427B-81A8-D773A5CE0B23}"/>
-    <hyperlink ref="R17" r:id="rId2" xr:uid="{41969A00-B0C6-4417-8CCF-B7B151267B53}"/>
-    <hyperlink ref="R21" r:id="rId3" xr:uid="{EBB2034B-8D35-4DB1-B289-7C81612A310F}"/>
-    <hyperlink ref="R19" r:id="rId4" xr:uid="{DC8D4D28-97E7-41BB-9988-1346B747C625}"/>
-    <hyperlink ref="R23" r:id="rId5" xr:uid="{C75036A9-AC94-4F6A-8E07-34129AC77265}"/>
-    <hyperlink ref="R24" r:id="rId6" xr:uid="{97BA0400-6430-48EC-9C58-6934DA8DF4A1}"/>
-    <hyperlink ref="R25" r:id="rId7" xr:uid="{6CA93FA7-88C0-4EAA-8322-E944A5817C75}"/>
-    <hyperlink ref="R18" r:id="rId8" xr:uid="{466CFA0A-4E6C-4FF6-A7A9-EA2DA020EF1F}"/>
-    <hyperlink ref="R28" r:id="rId9" xr:uid="{44C45DD6-9557-4D73-AF2F-CEBBAE84F3FA}"/>
-    <hyperlink ref="R22" r:id="rId10" xr:uid="{7799C82A-D9C2-40D7-80FA-AA6E436AE6D8}"/>
-    <hyperlink ref="R20" r:id="rId11" xr:uid="{BA028855-6DB0-4CE2-BBB5-08539C096E6E}"/>
-    <hyperlink ref="R14" r:id="rId12" xr:uid="{3BB03D59-97C5-4F6B-970A-6B69A8886104}"/>
-    <hyperlink ref="R47" r:id="rId13" xr:uid="{D6AA8031-1BB5-4A25-9622-C5DC2826D02C}"/>
+    <hyperlink ref="R38" r:id="rId1" xr:uid="{C6AD3598-B809-427B-81A8-D773A5CE0B23}"/>
+    <hyperlink ref="R26" r:id="rId2" xr:uid="{41969A00-B0C6-4417-8CCF-B7B151267B53}"/>
+    <hyperlink ref="R47" r:id="rId3" xr:uid="{EBB2034B-8D35-4DB1-B289-7C81612A310F}"/>
+    <hyperlink ref="R25" r:id="rId4" xr:uid="{DC8D4D28-97E7-41BB-9988-1346B747C625}"/>
+    <hyperlink ref="R8" r:id="rId5" xr:uid="{C75036A9-AC94-4F6A-8E07-34129AC77265}"/>
+    <hyperlink ref="R30" r:id="rId6" xr:uid="{97BA0400-6430-48EC-9C58-6934DA8DF4A1}"/>
+    <hyperlink ref="R13" r:id="rId7" xr:uid="{6CA93FA7-88C0-4EAA-8322-E944A5817C75}"/>
+    <hyperlink ref="R43" r:id="rId8" xr:uid="{466CFA0A-4E6C-4FF6-A7A9-EA2DA020EF1F}"/>
+    <hyperlink ref="R39" r:id="rId9" xr:uid="{44C45DD6-9557-4D73-AF2F-CEBBAE84F3FA}"/>
+    <hyperlink ref="R3" r:id="rId10" xr:uid="{7799C82A-D9C2-40D7-80FA-AA6E436AE6D8}"/>
+    <hyperlink ref="R34" r:id="rId11" xr:uid="{BA028855-6DB0-4CE2-BBB5-08539C096E6E}"/>
+    <hyperlink ref="R20" r:id="rId12" xr:uid="{3BB03D59-97C5-4F6B-970A-6B69A8886104}"/>
+    <hyperlink ref="R37" r:id="rId13" xr:uid="{D6AA8031-1BB5-4A25-9622-C5DC2826D02C}"/>
     <hyperlink ref="R11" r:id="rId14" xr:uid="{A37BFE6A-F1A7-4955-AD21-5AB2B36983F9}"/>
-    <hyperlink ref="R12" r:id="rId15" xr:uid="{DE7D2D4D-DFFE-4A43-AFF7-267ACE353248}"/>
-    <hyperlink ref="R13" r:id="rId16" xr:uid="{7A311EEC-74EB-4EF3-8627-76320022A50B}"/>
-    <hyperlink ref="R15" r:id="rId17" xr:uid="{9C2D4B9F-6671-4AE7-B546-53E156798EF5}"/>
-    <hyperlink ref="R42" r:id="rId18" xr:uid="{15D90454-A318-4AE3-A4A8-3A7D48EBA41D}"/>
-    <hyperlink ref="R45" r:id="rId19" xr:uid="{DB145D60-5D8B-4D49-885E-107E65E877B7}"/>
-    <hyperlink ref="R46" r:id="rId20" xr:uid="{351CF04C-EBBB-484D-BEC1-3C2ABE7BFFB9}"/>
-    <hyperlink ref="R44" r:id="rId21" xr:uid="{FA53397B-046A-4F53-8535-950BEEB7DBF6}"/>
-    <hyperlink ref="R39" r:id="rId22" xr:uid="{47C82DA1-6D52-45A8-9DEC-04876AB4F95F}"/>
-    <hyperlink ref="R40" r:id="rId23" xr:uid="{96E02A41-64AC-4CA3-8F11-193EB9BCF7C7}"/>
+    <hyperlink ref="R9" r:id="rId15" xr:uid="{DE7D2D4D-DFFE-4A43-AFF7-267ACE353248}"/>
+    <hyperlink ref="R41" r:id="rId16" xr:uid="{7A311EEC-74EB-4EF3-8627-76320022A50B}"/>
+    <hyperlink ref="R46" r:id="rId17" xr:uid="{9C2D4B9F-6671-4AE7-B546-53E156798EF5}"/>
+    <hyperlink ref="R27" r:id="rId18" xr:uid="{15D90454-A318-4AE3-A4A8-3A7D48EBA41D}"/>
+    <hyperlink ref="R6" r:id="rId19" xr:uid="{DB145D60-5D8B-4D49-885E-107E65E877B7}"/>
+    <hyperlink ref="R10" r:id="rId20" xr:uid="{351CF04C-EBBB-484D-BEC1-3C2ABE7BFFB9}"/>
+    <hyperlink ref="R14" r:id="rId21" xr:uid="{FA53397B-046A-4F53-8535-950BEEB7DBF6}"/>
+    <hyperlink ref="R45" r:id="rId22" xr:uid="{47C82DA1-6D52-45A8-9DEC-04876AB4F95F}"/>
+    <hyperlink ref="R29" r:id="rId23" xr:uid="{96E02A41-64AC-4CA3-8F11-193EB9BCF7C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
@@ -6378,160 +6512,160 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.44140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.77734375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.77734375" style="30" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.77734375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.77734375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.77734375" style="31" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.77734375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="21.5546875" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="31" t="s">
-        <v>308</v>
+      <c r="B2" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="32" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="33">
+      <c r="B3" s="34">
         <v>2010</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="33" t="s">
-        <v>311</v>
-      </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="33" t="s">
-        <v>313</v>
+      <c r="C3" s="35"/>
+      <c r="D3" s="34" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="34" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>314</v>
+      <c r="B4" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>315</v>
+      <c r="B5" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>316</v>
+      <c r="B6" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>317</v>
+      <c r="B7" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>318</v>
+      <c r="B8" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D9" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>319</v>
+      <c r="D9" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D10" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>320</v>
+      <c r="D10" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D11" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>323</v>
+      <c r="D11" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F12" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>322</v>
+      <c r="F12" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -6547,73 +6681,73 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="16.33203125" customWidth="1"/>
+    <col min="2" max="5" width="16.21875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>190</v>
+        <v>289</v>
       </c>
       <c r="G1" t="s">
-        <v>207</v>
+        <v>290</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>189</v>
+        <v>291</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>191</v>
+        <v>292</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>192</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>294</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>296</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>297</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="H2" s="1">
         <v>0.24099999999999999</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>193</v>
+        <v>298</v>
       </c>
       <c r="J2" s="1">
         <v>76</v>
@@ -6621,31 +6755,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>294</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>299</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>300</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>296</v>
       </c>
       <c r="F3" t="s">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="G3" t="s">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="H3" s="1">
         <v>2.161</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>199</v>
+        <v>303</v>
       </c>
       <c r="J3" s="1">
         <v>233</v>
@@ -6653,25 +6787,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>304</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>296</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>305</v>
       </c>
       <c r="G4" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="H4" s="1">
         <v>1.2529999999999999</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>199</v>
+        <v>303</v>
       </c>
       <c r="J4" s="1">
         <v>131</v>
@@ -6679,22 +6813,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>201</v>
+        <v>304</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>307</v>
       </c>
       <c r="G5" t="s">
-        <v>210</v>
+        <v>308</v>
       </c>
       <c r="H5" s="1">
         <v>0.35699999999999998</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>205</v>
+        <v>309</v>
       </c>
       <c r="J5" s="1">
         <v>8</v>
@@ -6702,25 +6836,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>294</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>299</v>
       </c>
       <c r="F6" t="s">
-        <v>211</v>
+        <v>310</v>
       </c>
       <c r="G6" t="s">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="H6" s="1">
         <v>0.111</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>206</v>
+        <v>312</v>
       </c>
       <c r="J6" s="1">
         <v>12</v>
@@ -6728,25 +6862,25 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>294</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="F7" t="s">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="G7" t="s">
-        <v>219</v>
+        <v>313</v>
       </c>
       <c r="H7" s="1">
         <v>0.51600000000000001</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>205</v>
+        <v>309</v>
       </c>
       <c r="J7" s="1">
         <v>39</v>
@@ -6754,22 +6888,22 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>299</v>
       </c>
       <c r="F8" t="s">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="G8" t="s">
-        <v>213</v>
+        <v>314</v>
       </c>
       <c r="H8" s="1">
         <v>0.96</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>199</v>
+        <v>303</v>
       </c>
       <c r="J8" s="1">
         <v>112</v>
@@ -6777,28 +6911,28 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>299</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>300</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="F9" t="s">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="G9" t="s">
-        <v>213</v>
+        <v>314</v>
       </c>
       <c r="H9" s="1">
         <v>0.38200000000000001</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>205</v>
+        <v>309</v>
       </c>
       <c r="J9" s="1">
         <v>33</v>
@@ -6806,22 +6940,22 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>315</v>
       </c>
       <c r="F10" t="s">
-        <v>204</v>
+        <v>307</v>
       </c>
       <c r="G10" t="s">
-        <v>215</v>
+        <v>316</v>
       </c>
       <c r="H10" s="1">
         <v>0.28799999999999998</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>193</v>
+        <v>298</v>
       </c>
       <c r="J10" s="1">
         <v>40</v>
@@ -6829,25 +6963,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>294</v>
       </c>
       <c r="C11" t="s">
-        <v>216</v>
+        <v>317</v>
       </c>
       <c r="F11" t="s">
-        <v>204</v>
+        <v>307</v>
       </c>
       <c r="G11" t="s">
-        <v>217</v>
+        <v>318</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>206</v>
+        <v>312</v>
       </c>
       <c r="J11" s="1">
         <v>4</v>
@@ -6855,22 +6989,22 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>299</v>
       </c>
       <c r="F12" t="s">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="G12" t="s">
-        <v>218</v>
+        <v>319</v>
       </c>
       <c r="H12" s="1">
         <v>1.3520000000000001</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>199</v>
+        <v>303</v>
       </c>
       <c r="J12" s="1">
         <v>113</v>
@@ -6878,28 +7012,28 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>299</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>300</v>
       </c>
       <c r="F13" t="s">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="G13" t="s">
-        <v>218</v>
+        <v>319</v>
       </c>
       <c r="H13" s="1">
         <v>0.65900000000000003</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>205</v>
+        <v>309</v>
       </c>
       <c r="J13" s="1">
         <v>75</v>
@@ -6907,22 +7041,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>304</v>
       </c>
       <c r="F14" t="s">
-        <v>204</v>
+        <v>307</v>
       </c>
       <c r="G14" t="s">
-        <v>210</v>
+        <v>308</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>206</v>
+        <v>312</v>
       </c>
       <c r="J14" s="1">
         <v>4</v>
@@ -6941,265 +7075,265 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3F4766-26B0-420F-A942-6A59970B533C}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.44140625" style="1"/>
     <col min="3" max="3" width="21.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" style="1"/>
+    <col min="6" max="6" width="10.77734375" style="1"/>
     <col min="7" max="7" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="1"/>
+    <col min="8" max="8" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>321</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>236</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>237</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>239</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>242</v>
+        <v>105</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>244</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>243</v>
+        <v>113</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>241</v>
+        <v>322</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>245</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>141</v>
+        <v>323</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>96</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>228</v>
+        <v>324</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>229</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
-        <v>102</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
-        <v>103</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
-        <v>247</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
-        <v>295</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
-        <v>296</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
-        <v>300</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
